--- a/ASIANPAINT.NS.xlsx
+++ b/ASIANPAINT.NS.xlsx
@@ -667,7 +667,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11586586358786076"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.84993855536844021"/>
+          <c:h val="0.59832276173811605"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -680,7 +690,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Asianpaints Close</c:v>
+                  <c:v>Dmart Open</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1448,739 +1458,739 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="245"/>
                 <c:pt idx="0">
-                  <c:v>2916.0500489999999</c:v>
+                  <c:v>3690</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2940.8999020000001</c:v>
+                  <c:v>3681.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2945.25</c:v>
+                  <c:v>3708.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2866.1499020000001</c:v>
+                  <c:v>3647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2787.8000489999999</c:v>
+                  <c:v>3571.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2784.4499510000001</c:v>
+                  <c:v>3525</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2810.6000979999999</c:v>
+                  <c:v>3450</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2775</c:v>
+                  <c:v>3531.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2722.6499020000001</c:v>
+                  <c:v>3532.6999510000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2766.1999510000001</c:v>
+                  <c:v>3574.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2725.8500979999999</c:v>
+                  <c:v>3555.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2743.75</c:v>
+                  <c:v>3558</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2705.6499020000001</c:v>
+                  <c:v>3547</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2760.3999020000001</c:v>
+                  <c:v>3517.6499020000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2754.1999510000001</c:v>
+                  <c:v>3476.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2758.0500489999999</c:v>
+                  <c:v>3471.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2765.6000979999999</c:v>
+                  <c:v>3449</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2814.6000979999999</c:v>
+                  <c:v>3469.6499020000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2804.6000979999999</c:v>
+                  <c:v>3499.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2790.75</c:v>
+                  <c:v>3502</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2777</c:v>
+                  <c:v>3509</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2786.1499020000001</c:v>
+                  <c:v>3480</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2805.9499510000001</c:v>
+                  <c:v>3546</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2833.6000979999999</c:v>
+                  <c:v>3530</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2825.5500489999999</c:v>
+                  <c:v>3545.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2817.1000979999999</c:v>
+                  <c:v>3570</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2795.9499510000001</c:v>
+                  <c:v>3502</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2705.9499510000001</c:v>
+                  <c:v>3503.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2738.5</c:v>
+                  <c:v>3496.1499020000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2749.8999020000001</c:v>
+                  <c:v>3485.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2828.8000489999999</c:v>
+                  <c:v>3490.1999510000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2840.8999020000001</c:v>
+                  <c:v>3441.3999020000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2833.8999020000001</c:v>
+                  <c:v>3447</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2828.8500979999999</c:v>
+                  <c:v>3460.4499510000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2864.5500489999999</c:v>
+                  <c:v>3480.6000979999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2859.5500489999999</c:v>
+                  <c:v>3439.75</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2853.5500489999999</c:v>
+                  <c:v>3393</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2830.1999510000001</c:v>
+                  <c:v>3390</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2784.1999510000001</c:v>
+                  <c:v>3391.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2745.6000979999999</c:v>
+                  <c:v>3350</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2827.3999020000001</c:v>
+                  <c:v>3350</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2893.25</c:v>
+                  <c:v>3337.25</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2862.6499020000001</c:v>
+                  <c:v>3398</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2855.1499020000001</c:v>
+                  <c:v>3295</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2839.1000979999999</c:v>
+                  <c:v>3371.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2839.8500979999999</c:v>
+                  <c:v>3365</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2797.8000489999999</c:v>
+                  <c:v>3361.3500979999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2798.5</c:v>
+                  <c:v>3372</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2803.75</c:v>
+                  <c:v>3367</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2784.4499510000001</c:v>
+                  <c:v>3308</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2770.5</c:v>
+                  <c:v>3320</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2761.6499020000001</c:v>
+                  <c:v>3325</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2777</c:v>
+                  <c:v>3413.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2808.5</c:v>
+                  <c:v>3571.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2809.8500979999999</c:v>
+                  <c:v>3644.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2776.3500979999999</c:v>
+                  <c:v>3504</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2753.8000489999999</c:v>
+                  <c:v>3465</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2786.75</c:v>
+                  <c:v>3467</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2809.75</c:v>
+                  <c:v>3480</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2843.1000979999999</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2854.6000979999999</c:v>
+                  <c:v>3501.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2809.6999510000001</c:v>
+                  <c:v>3506.75</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2843.8500979999999</c:v>
+                  <c:v>3489.1999510000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2882.1000979999999</c:v>
+                  <c:v>3482.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2891.1000979999999</c:v>
+                  <c:v>3469.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2898</c:v>
+                  <c:v>3469.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2910</c:v>
+                  <c:v>3465.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2899.9499510000001</c:v>
+                  <c:v>3460.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2902.3500979999999</c:v>
+                  <c:v>3500.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2899.5500489999999</c:v>
+                  <c:v>3515</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2929.6999510000001</c:v>
+                  <c:v>3540</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2982.8500979999999</c:v>
+                  <c:v>3550</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3012.9499510000001</c:v>
+                  <c:v>3560.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3019.4499510000001</c:v>
+                  <c:v>3615.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3034.8000489999999</c:v>
+                  <c:v>3721</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3041.3999020000001</c:v>
+                  <c:v>3660</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3139.75</c:v>
+                  <c:v>3673.3000489999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3131.1000979999999</c:v>
+                  <c:v>3715</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3132</c:v>
+                  <c:v>3550</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3138.1000979999999</c:v>
+                  <c:v>3535.3999020000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3092.4499510000001</c:v>
+                  <c:v>3491.6999510000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3109.0500489999999</c:v>
+                  <c:v>3420.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3084.4499510000001</c:v>
+                  <c:v>3390</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3084.8999020000001</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3120.6000979999999</c:v>
+                  <c:v>3425.5</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3101.5</c:v>
+                  <c:v>3432</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3123.5500489999999</c:v>
+                  <c:v>3430</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3128.3999020000001</c:v>
+                  <c:v>3448.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3137.3999020000001</c:v>
+                  <c:v>3540</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3144.3999020000001</c:v>
+                  <c:v>3517.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3192.9499510000001</c:v>
+                  <c:v>3519.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3240.6999510000001</c:v>
+                  <c:v>3480</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3237.25</c:v>
+                  <c:v>3510</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3199.75</c:v>
+                  <c:v>3550</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3212.75</c:v>
+                  <c:v>3536</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3224.8000489999999</c:v>
+                  <c:v>3536</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3212.25</c:v>
+                  <c:v>3554.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3180.5500489999999</c:v>
+                  <c:v>3586</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3194.75</c:v>
+                  <c:v>3646.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3262.8500979999999</c:v>
+                  <c:v>3644</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3270.1999510000001</c:v>
+                  <c:v>3693.75</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>3294.3500979999999</c:v>
+                  <c:v>3745</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>3316.8500979999999</c:v>
+                  <c:v>3952</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3309.6999510000001</c:v>
+                  <c:v>4086</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>3318.6999510000001</c:v>
+                  <c:v>3985</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>3316.1000979999999</c:v>
+                  <c:v>3987</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3248.0500489999999</c:v>
+                  <c:v>3935</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>3297.6999510000001</c:v>
+                  <c:v>3823.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>3308.1499020000001</c:v>
+                  <c:v>3744.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3326</c:v>
+                  <c:v>3849</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3326</c:v>
+                  <c:v>3872.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3362.0500489999999</c:v>
+                  <c:v>3965</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3358.6999510000001</c:v>
+                  <c:v>3889.1999510000001</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3347.6999510000001</c:v>
+                  <c:v>3929.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3374.3999020000001</c:v>
+                  <c:v>3880</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3399.3999020000001</c:v>
+                  <c:v>3844</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3343.6999510000001</c:v>
+                  <c:v>3818</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3343.1499020000001</c:v>
+                  <c:v>3810</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>3392.5500489999999</c:v>
+                  <c:v>3786.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>3406.75</c:v>
+                  <c:v>3847.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>3398.5500489999999</c:v>
+                  <c:v>3823</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>3429.75</c:v>
+                  <c:v>3840.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>3460.3999020000001</c:v>
+                  <c:v>3796.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3513.4499510000001</c:v>
+                  <c:v>3700</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3514.6499020000001</c:v>
+                  <c:v>3689.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3526</c:v>
+                  <c:v>3705.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3517.6999510000001</c:v>
+                  <c:v>3653</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3543.6999510000001</c:v>
+                  <c:v>3676</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3400.3999020000001</c:v>
+                  <c:v>3668.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3373</c:v>
+                  <c:v>3691.5500489999999</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3369.3999020000001</c:v>
+                  <c:v>3717.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3390.6999510000001</c:v>
+                  <c:v>3704</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3377.3500979999999</c:v>
+                  <c:v>3713.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3342.9499510000001</c:v>
+                  <c:v>3758.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>3362.8999020000001</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3336.3500979999999</c:v>
+                  <c:v>3713.3999020000001</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3339.6499020000001</c:v>
+                  <c:v>3699.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3343</c:v>
+                  <c:v>3661.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3348.0500489999999</c:v>
+                  <c:v>3660</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3331</c:v>
+                  <c:v>3648.4499510000001</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3237.8999020000001</c:v>
+                  <c:v>3633.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3185.3500979999999</c:v>
+                  <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>3202.6000979999999</c:v>
+                  <c:v>3567.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>3194.0500489999999</c:v>
+                  <c:v>3527.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3183.25</c:v>
+                  <c:v>3509.25</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3163.5500489999999</c:v>
+                  <c:v>3510</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>3182.3000489999999</c:v>
+                  <c:v>3540</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>3179.6999510000001</c:v>
+                  <c:v>3550</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>3168.8000489999999</c:v>
+                  <c:v>3582</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>3225.6000979999999</c:v>
+                  <c:v>3550</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>3259.3000489999999</c:v>
+                  <c:v>3554</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>3259.6999510000001</c:v>
+                  <c:v>3533</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>3285.6999510000001</c:v>
+                  <c:v>3632</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>3294.6999510000001</c:v>
+                  <c:v>3693.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>3256.1000979999999</c:v>
+                  <c:v>3736.3000489999999</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>3259.5500489999999</c:v>
+                  <c:v>3730</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>3235.5500489999999</c:v>
+                  <c:v>3771.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3223.3000489999999</c:v>
+                  <c:v>3759.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>3225.3000489999999</c:v>
+                  <c:v>3777</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>3246.3500979999999</c:v>
+                  <c:v>3815</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>3238.0500489999999</c:v>
+                  <c:v>3820</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3259.3999020000001</c:v>
+                  <c:v>3791.6999510000001</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3256.8500979999999</c:v>
+                  <c:v>3836</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3277.75</c:v>
+                  <c:v>3760.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3240.25</c:v>
+                  <c:v>3845</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3196.6499020000001</c:v>
+                  <c:v>3819.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3206.3000489999999</c:v>
+                  <c:v>3795.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>3214.3500979999999</c:v>
+                  <c:v>3789.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3244.1999510000001</c:v>
+                  <c:v>3747</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3274.8500979999999</c:v>
+                  <c:v>3687</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3323.25</c:v>
+                  <c:v>3700</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3292.8000489999999</c:v>
+                  <c:v>3664.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3301.8000489999999</c:v>
+                  <c:v>3650</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3170.3500979999999</c:v>
+                  <c:v>3692</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3161.0500489999999</c:v>
+                  <c:v>3671.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3166.8500979999999</c:v>
+                  <c:v>3675.3999020000001</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3169.8999020000001</c:v>
+                  <c:v>3760</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3206.25</c:v>
+                  <c:v>3880</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3195.75</c:v>
+                  <c:v>3860</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3152.8000489999999</c:v>
+                  <c:v>3809.6000979999999</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3151.5</c:v>
+                  <c:v>3809.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3163.8999020000001</c:v>
+                  <c:v>3812.5</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3159.1000979999999</c:v>
+                  <c:v>3874.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>3148.8000489999999</c:v>
+                  <c:v>3853.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>3112.0500489999999</c:v>
+                  <c:v>3825.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>3113.5500489999999</c:v>
+                  <c:v>3879.1499020000001</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>3096.4499510000001</c:v>
+                  <c:v>3842.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>3101.8000489999999</c:v>
+                  <c:v>3790</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>3105.8500979999999</c:v>
+                  <c:v>3760.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>3072</c:v>
+                  <c:v>3750.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>3060.8000489999999</c:v>
+                  <c:v>3685</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2960.3000489999999</c:v>
+                  <c:v>3728.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2955.1499020000001</c:v>
+                  <c:v>3700</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2967.1000979999999</c:v>
+                  <c:v>3686.6999510000001</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>2995.6999510000001</c:v>
+                  <c:v>3657.6499020000001</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2934.5500489999999</c:v>
+                  <c:v>3637.5</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2955.3999020000001</c:v>
+                  <c:v>3639</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2977.8500979999999</c:v>
+                  <c:v>3667.6000979999999</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>3029.3000489999999</c:v>
+                  <c:v>3654.5500489999999</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>3033.3500979999999</c:v>
+                  <c:v>3649.5</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>3095.25</c:v>
+                  <c:v>3658</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>3080.1999510000001</c:v>
+                  <c:v>3733.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>3076.4499510000001</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>3085.6000979999999</c:v>
+                  <c:v>3809.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>3116.1999510000001</c:v>
+                  <c:v>3810</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>3130.3000489999999</c:v>
+                  <c:v>3795</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>3168.8999020000001</c:v>
+                  <c:v>3794.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>3140.3500979999999</c:v>
+                  <c:v>3810.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>3133.25</c:v>
+                  <c:v>3796</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>3133</c:v>
+                  <c:v>3820</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>3122.9499510000001</c:v>
+                  <c:v>3848</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>3136.1499020000001</c:v>
+                  <c:v>3820</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>3148.3500979999999</c:v>
+                  <c:v>3815</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>3148.3500979999999</c:v>
+                  <c:v>3915</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>3119.8999020000001</c:v>
+                  <c:v>3878</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>3173.3999020000001</c:v>
+                  <c:v>3969.6499020000001</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>3194.5500489999999</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>3226.25</c:v>
+                  <c:v>3950</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>3252.5500489999999</c:v>
+                  <c:v>4039.5500489999999</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>3251.8000489999999</c:v>
+                  <c:v>4140.0498049999997</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>3232</c:v>
+                  <c:v>4155.9501950000003</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>3233</c:v>
+                  <c:v>4070.6499020000001</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>3224.75</c:v>
+                  <c:v>4080.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>3243.6499020000001</c:v>
+                  <c:v>4075</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>3241.3500979999999</c:v>
+                  <c:v>4044.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>3313.8999020000001</c:v>
+                  <c:v>4085</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>3332.0500489999999</c:v>
+                  <c:v>4045</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>3336.0500489999999</c:v>
+                  <c:v>4010</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>3297.1499020000001</c:v>
+                  <c:v>4011</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>3302.9499510000001</c:v>
+                  <c:v>3950</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>3341.3000489999999</c:v>
+                  <c:v>3977.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>3383.3500979999999</c:v>
+                  <c:v>4009.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>3404.4499510000001</c:v>
+                  <c:v>4020</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>3397.25</c:v>
+                  <c:v>4048.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>3402.3999020000001</c:v>
+                  <c:v>4045.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>3396.1000979999999</c:v>
+                  <c:v>4075</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>3391.3500979999999</c:v>
+                  <c:v>4070</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>3373.6000979999999</c:v>
+                  <c:v>4080</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>3379.9499510000001</c:v>
+                  <c:v>3965</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>3355.5500489999999</c:v>
+                  <c:v>3902</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>3298.3999020000001</c:v>
+                  <c:v>3893.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>3267.5</c:v>
+                  <c:v>3810.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>3286.8500979999999</c:v>
+                  <c:v>3818.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>3288.1999510000001</c:v>
+                  <c:v>3845</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>3277.8000489999999</c:v>
+                  <c:v>3827.9499510000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2440,7 +2450,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Asianpaints Close</c:v>
+                  <c:v>Dmart Open</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3208,739 +3218,739 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="246"/>
                 <c:pt idx="0">
-                  <c:v>2916.0500489999999</c:v>
+                  <c:v>3690</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2940.8999020000001</c:v>
+                  <c:v>3681.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2945.25</c:v>
+                  <c:v>3708.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2866.1499020000001</c:v>
+                  <c:v>3647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2787.8000489999999</c:v>
+                  <c:v>3571.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2784.4499510000001</c:v>
+                  <c:v>3525</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2810.6000979999999</c:v>
+                  <c:v>3450</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2775</c:v>
+                  <c:v>3531.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2722.6499020000001</c:v>
+                  <c:v>3532.6999510000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2766.1999510000001</c:v>
+                  <c:v>3574.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2725.8500979999999</c:v>
+                  <c:v>3555.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2743.75</c:v>
+                  <c:v>3558</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2705.6499020000001</c:v>
+                  <c:v>3547</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2760.3999020000001</c:v>
+                  <c:v>3517.6499020000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2754.1999510000001</c:v>
+                  <c:v>3476.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2758.0500489999999</c:v>
+                  <c:v>3471.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2765.6000979999999</c:v>
+                  <c:v>3449</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2814.6000979999999</c:v>
+                  <c:v>3469.6499020000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2804.6000979999999</c:v>
+                  <c:v>3499.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2790.75</c:v>
+                  <c:v>3502</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2777</c:v>
+                  <c:v>3509</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2786.1499020000001</c:v>
+                  <c:v>3480</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2805.9499510000001</c:v>
+                  <c:v>3546</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2833.6000979999999</c:v>
+                  <c:v>3530</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2825.5500489999999</c:v>
+                  <c:v>3545.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2817.1000979999999</c:v>
+                  <c:v>3570</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2795.9499510000001</c:v>
+                  <c:v>3502</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2705.9499510000001</c:v>
+                  <c:v>3503.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2738.5</c:v>
+                  <c:v>3496.1499020000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2749.8999020000001</c:v>
+                  <c:v>3485.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2828.8000489999999</c:v>
+                  <c:v>3490.1999510000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2840.8999020000001</c:v>
+                  <c:v>3441.3999020000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2833.8999020000001</c:v>
+                  <c:v>3447</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2828.8500979999999</c:v>
+                  <c:v>3460.4499510000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2864.5500489999999</c:v>
+                  <c:v>3480.6000979999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2859.5500489999999</c:v>
+                  <c:v>3439.75</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2853.5500489999999</c:v>
+                  <c:v>3393</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2830.1999510000001</c:v>
+                  <c:v>3390</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2784.1999510000001</c:v>
+                  <c:v>3391.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2745.6000979999999</c:v>
+                  <c:v>3350</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2827.3999020000001</c:v>
+                  <c:v>3350</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2893.25</c:v>
+                  <c:v>3337.25</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2862.6499020000001</c:v>
+                  <c:v>3398</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2855.1499020000001</c:v>
+                  <c:v>3295</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2839.1000979999999</c:v>
+                  <c:v>3371.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2839.8500979999999</c:v>
+                  <c:v>3365</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2797.8000489999999</c:v>
+                  <c:v>3361.3500979999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2798.5</c:v>
+                  <c:v>3372</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2803.75</c:v>
+                  <c:v>3367</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2784.4499510000001</c:v>
+                  <c:v>3308</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2770.5</c:v>
+                  <c:v>3320</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2761.6499020000001</c:v>
+                  <c:v>3325</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2777</c:v>
+                  <c:v>3413.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2808.5</c:v>
+                  <c:v>3571.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2809.8500979999999</c:v>
+                  <c:v>3644.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2776.3500979999999</c:v>
+                  <c:v>3504</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2753.8000489999999</c:v>
+                  <c:v>3465</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2786.75</c:v>
+                  <c:v>3467</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2809.75</c:v>
+                  <c:v>3480</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2843.1000979999999</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2854.6000979999999</c:v>
+                  <c:v>3501.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2809.6999510000001</c:v>
+                  <c:v>3506.75</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2843.8500979999999</c:v>
+                  <c:v>3489.1999510000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2882.1000979999999</c:v>
+                  <c:v>3482.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2891.1000979999999</c:v>
+                  <c:v>3469.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2898</c:v>
+                  <c:v>3469.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2910</c:v>
+                  <c:v>3465.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2899.9499510000001</c:v>
+                  <c:v>3460.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2902.3500979999999</c:v>
+                  <c:v>3500.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2899.5500489999999</c:v>
+                  <c:v>3515</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2929.6999510000001</c:v>
+                  <c:v>3540</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2982.8500979999999</c:v>
+                  <c:v>3550</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3012.9499510000001</c:v>
+                  <c:v>3560.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3019.4499510000001</c:v>
+                  <c:v>3615.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3034.8000489999999</c:v>
+                  <c:v>3721</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3041.3999020000001</c:v>
+                  <c:v>3660</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3139.75</c:v>
+                  <c:v>3673.3000489999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3131.1000979999999</c:v>
+                  <c:v>3715</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3132</c:v>
+                  <c:v>3550</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3138.1000979999999</c:v>
+                  <c:v>3535.3999020000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3092.4499510000001</c:v>
+                  <c:v>3491.6999510000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3109.0500489999999</c:v>
+                  <c:v>3420.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3084.4499510000001</c:v>
+                  <c:v>3390</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3084.8999020000001</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3120.6000979999999</c:v>
+                  <c:v>3425.5</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3101.5</c:v>
+                  <c:v>3432</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3123.5500489999999</c:v>
+                  <c:v>3430</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3128.3999020000001</c:v>
+                  <c:v>3448.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3137.3999020000001</c:v>
+                  <c:v>3540</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3144.3999020000001</c:v>
+                  <c:v>3517.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3192.9499510000001</c:v>
+                  <c:v>3519.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3240.6999510000001</c:v>
+                  <c:v>3480</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3237.25</c:v>
+                  <c:v>3510</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3199.75</c:v>
+                  <c:v>3550</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3212.75</c:v>
+                  <c:v>3536</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3224.8000489999999</c:v>
+                  <c:v>3536</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3212.25</c:v>
+                  <c:v>3554.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3180.5500489999999</c:v>
+                  <c:v>3586</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3194.75</c:v>
+                  <c:v>3646.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3262.8500979999999</c:v>
+                  <c:v>3644</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3270.1999510000001</c:v>
+                  <c:v>3693.75</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>3294.3500979999999</c:v>
+                  <c:v>3745</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>3316.8500979999999</c:v>
+                  <c:v>3952</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3309.6999510000001</c:v>
+                  <c:v>4086</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>3318.6999510000001</c:v>
+                  <c:v>3985</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>3316.1000979999999</c:v>
+                  <c:v>3987</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3248.0500489999999</c:v>
+                  <c:v>3935</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>3297.6999510000001</c:v>
+                  <c:v>3823.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>3308.1499020000001</c:v>
+                  <c:v>3744.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3326</c:v>
+                  <c:v>3849</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3326</c:v>
+                  <c:v>3872.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3362.0500489999999</c:v>
+                  <c:v>3965</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3358.6999510000001</c:v>
+                  <c:v>3889.1999510000001</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3347.6999510000001</c:v>
+                  <c:v>3929.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3374.3999020000001</c:v>
+                  <c:v>3880</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3399.3999020000001</c:v>
+                  <c:v>3844</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3343.6999510000001</c:v>
+                  <c:v>3818</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3343.1499020000001</c:v>
+                  <c:v>3810</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>3392.5500489999999</c:v>
+                  <c:v>3786.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>3406.75</c:v>
+                  <c:v>3847.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>3398.5500489999999</c:v>
+                  <c:v>3823</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>3429.75</c:v>
+                  <c:v>3840.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>3460.3999020000001</c:v>
+                  <c:v>3796.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3513.4499510000001</c:v>
+                  <c:v>3700</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3514.6499020000001</c:v>
+                  <c:v>3689.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3526</c:v>
+                  <c:v>3705.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3517.6999510000001</c:v>
+                  <c:v>3653</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3543.6999510000001</c:v>
+                  <c:v>3676</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3400.3999020000001</c:v>
+                  <c:v>3668.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3373</c:v>
+                  <c:v>3691.5500489999999</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3369.3999020000001</c:v>
+                  <c:v>3717.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3390.6999510000001</c:v>
+                  <c:v>3704</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3377.3500979999999</c:v>
+                  <c:v>3713.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3342.9499510000001</c:v>
+                  <c:v>3758.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>3362.8999020000001</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3336.3500979999999</c:v>
+                  <c:v>3713.3999020000001</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3339.6499020000001</c:v>
+                  <c:v>3699.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3343</c:v>
+                  <c:v>3661.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3348.0500489999999</c:v>
+                  <c:v>3660</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3331</c:v>
+                  <c:v>3648.4499510000001</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3237.8999020000001</c:v>
+                  <c:v>3633.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3185.3500979999999</c:v>
+                  <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>3202.6000979999999</c:v>
+                  <c:v>3567.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>3194.0500489999999</c:v>
+                  <c:v>3527.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3183.25</c:v>
+                  <c:v>3509.25</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3163.5500489999999</c:v>
+                  <c:v>3510</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>3182.3000489999999</c:v>
+                  <c:v>3540</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>3179.6999510000001</c:v>
+                  <c:v>3550</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>3168.8000489999999</c:v>
+                  <c:v>3582</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>3225.6000979999999</c:v>
+                  <c:v>3550</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>3259.3000489999999</c:v>
+                  <c:v>3554</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>3259.6999510000001</c:v>
+                  <c:v>3533</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>3285.6999510000001</c:v>
+                  <c:v>3632</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>3294.6999510000001</c:v>
+                  <c:v>3693.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>3256.1000979999999</c:v>
+                  <c:v>3736.3000489999999</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>3259.5500489999999</c:v>
+                  <c:v>3730</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>3235.5500489999999</c:v>
+                  <c:v>3771.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3223.3000489999999</c:v>
+                  <c:v>3759.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>3225.3000489999999</c:v>
+                  <c:v>3777</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>3246.3500979999999</c:v>
+                  <c:v>3815</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>3238.0500489999999</c:v>
+                  <c:v>3820</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3259.3999020000001</c:v>
+                  <c:v>3791.6999510000001</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3256.8500979999999</c:v>
+                  <c:v>3836</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3277.75</c:v>
+                  <c:v>3760.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3240.25</c:v>
+                  <c:v>3845</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3196.6499020000001</c:v>
+                  <c:v>3819.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3206.3000489999999</c:v>
+                  <c:v>3795.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>3214.3500979999999</c:v>
+                  <c:v>3789.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3244.1999510000001</c:v>
+                  <c:v>3747</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3274.8500979999999</c:v>
+                  <c:v>3687</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3323.25</c:v>
+                  <c:v>3700</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3292.8000489999999</c:v>
+                  <c:v>3664.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3301.8000489999999</c:v>
+                  <c:v>3650</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3170.3500979999999</c:v>
+                  <c:v>3692</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3161.0500489999999</c:v>
+                  <c:v>3671.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3166.8500979999999</c:v>
+                  <c:v>3675.3999020000001</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3169.8999020000001</c:v>
+                  <c:v>3760</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3206.25</c:v>
+                  <c:v>3880</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3195.75</c:v>
+                  <c:v>3860</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3152.8000489999999</c:v>
+                  <c:v>3809.6000979999999</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3151.5</c:v>
+                  <c:v>3809.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3163.8999020000001</c:v>
+                  <c:v>3812.5</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3159.1000979999999</c:v>
+                  <c:v>3874.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>3148.8000489999999</c:v>
+                  <c:v>3853.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>3112.0500489999999</c:v>
+                  <c:v>3825.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>3113.5500489999999</c:v>
+                  <c:v>3879.1499020000001</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>3096.4499510000001</c:v>
+                  <c:v>3842.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>3101.8000489999999</c:v>
+                  <c:v>3790</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>3105.8500979999999</c:v>
+                  <c:v>3760.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>3072</c:v>
+                  <c:v>3750.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>3060.8000489999999</c:v>
+                  <c:v>3685</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2960.3000489999999</c:v>
+                  <c:v>3728.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2955.1499020000001</c:v>
+                  <c:v>3700</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2967.1000979999999</c:v>
+                  <c:v>3686.6999510000001</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>2995.6999510000001</c:v>
+                  <c:v>3657.6499020000001</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2934.5500489999999</c:v>
+                  <c:v>3637.5</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2955.3999020000001</c:v>
+                  <c:v>3639</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2977.8500979999999</c:v>
+                  <c:v>3667.6000979999999</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>3029.3000489999999</c:v>
+                  <c:v>3654.5500489999999</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>3033.3500979999999</c:v>
+                  <c:v>3649.5</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>3095.25</c:v>
+                  <c:v>3658</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>3080.1999510000001</c:v>
+                  <c:v>3733.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>3076.4499510000001</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>3085.6000979999999</c:v>
+                  <c:v>3809.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>3116.1999510000001</c:v>
+                  <c:v>3810</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>3130.3000489999999</c:v>
+                  <c:v>3795</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>3168.8999020000001</c:v>
+                  <c:v>3794.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>3140.3500979999999</c:v>
+                  <c:v>3810.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>3133.25</c:v>
+                  <c:v>3796</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>3133</c:v>
+                  <c:v>3820</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>3122.9499510000001</c:v>
+                  <c:v>3848</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>3136.1499020000001</c:v>
+                  <c:v>3820</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>3148.3500979999999</c:v>
+                  <c:v>3815</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>3148.3500979999999</c:v>
+                  <c:v>3915</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>3119.8999020000001</c:v>
+                  <c:v>3878</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>3173.3999020000001</c:v>
+                  <c:v>3969.6499020000001</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>3194.5500489999999</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>3226.25</c:v>
+                  <c:v>3950</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>3252.5500489999999</c:v>
+                  <c:v>4039.5500489999999</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>3251.8000489999999</c:v>
+                  <c:v>4140.0498049999997</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>3232</c:v>
+                  <c:v>4155.9501950000003</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>3233</c:v>
+                  <c:v>4070.6499020000001</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>3224.75</c:v>
+                  <c:v>4080.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>3243.6499020000001</c:v>
+                  <c:v>4075</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>3241.3500979999999</c:v>
+                  <c:v>4044.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>3313.8999020000001</c:v>
+                  <c:v>4085</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>3332.0500489999999</c:v>
+                  <c:v>4045</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>3336.0500489999999</c:v>
+                  <c:v>4010</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>3297.1499020000001</c:v>
+                  <c:v>4011</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>3302.9499510000001</c:v>
+                  <c:v>3950</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>3341.3000489999999</c:v>
+                  <c:v>3977.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>3383.3500979999999</c:v>
+                  <c:v>4009.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>3404.4499510000001</c:v>
+                  <c:v>4020</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>3397.25</c:v>
+                  <c:v>4048.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>3402.3999020000001</c:v>
+                  <c:v>4045.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>3396.1000979999999</c:v>
+                  <c:v>4075</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>3391.3500979999999</c:v>
+                  <c:v>4070</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>3373.6000979999999</c:v>
+                  <c:v>4080</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>3379.9499510000001</c:v>
+                  <c:v>3965</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>3355.5500489999999</c:v>
+                  <c:v>3902</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>3298.3999020000001</c:v>
+                  <c:v>3893.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>3267.5</c:v>
+                  <c:v>3810.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>3286.8500979999999</c:v>
+                  <c:v>3818.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>3288.1999510000001</c:v>
+                  <c:v>3845</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>3277.8000489999999</c:v>
+                  <c:v>3827.9499510000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3956,7 +3966,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dmart Close</c:v>
+                  <c:v>Asianpaints Close</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4724,739 +4734,739 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="246"/>
                 <c:pt idx="0">
-                  <c:v>3678.3500979999999</c:v>
+                  <c:v>2916.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3689.8000489999999</c:v>
+                  <c:v>2940.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3648.6000979999999</c:v>
+                  <c:v>2945.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3565.1000979999999</c:v>
+                  <c:v>2866.1499020000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3513.75</c:v>
+                  <c:v>2787.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3434</c:v>
+                  <c:v>2784.4499510000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3513.5</c:v>
+                  <c:v>2810.6000979999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3515.1000979999999</c:v>
+                  <c:v>2775</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3562.3500979999999</c:v>
+                  <c:v>2722.6499020000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3546.3000489999999</c:v>
+                  <c:v>2766.1999510000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3502.3000489999999</c:v>
+                  <c:v>2725.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3551.3500979999999</c:v>
+                  <c:v>2743.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3502.8999020000001</c:v>
+                  <c:v>2705.6499020000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3470.3500979999999</c:v>
+                  <c:v>2760.3999020000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3441.5</c:v>
+                  <c:v>2754.1999510000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3440.8999020000001</c:v>
+                  <c:v>2758.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3458.6000979999999</c:v>
+                  <c:v>2765.6000979999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3482.0500489999999</c:v>
+                  <c:v>2814.6000979999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3498.8500979999999</c:v>
+                  <c:v>2804.6000979999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3495.1999510000001</c:v>
+                  <c:v>2790.75</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3482.6999510000001</c:v>
+                  <c:v>2777</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3545.6000979999999</c:v>
+                  <c:v>2786.1499020000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3541.6999510000001</c:v>
+                  <c:v>2805.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3545</c:v>
+                  <c:v>2833.6000979999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3552.8500979999999</c:v>
+                  <c:v>2825.5500489999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3525.6000979999999</c:v>
+                  <c:v>2817.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3500.1499020000001</c:v>
+                  <c:v>2795.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3478.75</c:v>
+                  <c:v>2705.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3499.1999510000001</c:v>
+                  <c:v>2738.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3491.3000489999999</c:v>
+                  <c:v>2749.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3416.9499510000001</c:v>
+                  <c:v>2828.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3439.3500979999999</c:v>
+                  <c:v>2840.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3443.1999510000001</c:v>
+                  <c:v>2833.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3463.25</c:v>
+                  <c:v>2828.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3437.1499020000001</c:v>
+                  <c:v>2864.5500489999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3389.6999510000001</c:v>
+                  <c:v>2859.5500489999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3397.8500979999999</c:v>
+                  <c:v>2853.5500489999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3391.8500979999999</c:v>
+                  <c:v>2830.1999510000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3351.75</c:v>
+                  <c:v>2784.1999510000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3350.9499510000001</c:v>
+                  <c:v>2745.6000979999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3337.25</c:v>
+                  <c:v>2827.3999020000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3382.1499020000001</c:v>
+                  <c:v>2893.25</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3311.3000489999999</c:v>
+                  <c:v>2862.6499020000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3366.1000979999999</c:v>
+                  <c:v>2855.1499020000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3357.6000979999999</c:v>
+                  <c:v>2839.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3361.3999020000001</c:v>
+                  <c:v>2839.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3373.5</c:v>
+                  <c:v>2797.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3358.3999020000001</c:v>
+                  <c:v>2798.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3306.8000489999999</c:v>
+                  <c:v>2803.75</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3316.4499510000001</c:v>
+                  <c:v>2784.4499510000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3325.4499510000001</c:v>
+                  <c:v>2770.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3401.0500489999999</c:v>
+                  <c:v>2761.6499020000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3553.75</c:v>
+                  <c:v>2777</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3654.8500979999999</c:v>
+                  <c:v>2808.5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3496.1000979999999</c:v>
+                  <c:v>2809.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3450.6999510000001</c:v>
+                  <c:v>2776.3500979999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3454.1999510000001</c:v>
+                  <c:v>2753.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3473.1000979999999</c:v>
+                  <c:v>2786.75</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3501.0500489999999</c:v>
+                  <c:v>2809.75</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3497.1000979999999</c:v>
+                  <c:v>2843.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3506.8000489999999</c:v>
+                  <c:v>2854.6000979999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3476.1999510000001</c:v>
+                  <c:v>2809.6999510000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3482.1999510000001</c:v>
+                  <c:v>2843.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3455.8999020000001</c:v>
+                  <c:v>2882.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3467.1999510000001</c:v>
+                  <c:v>2891.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3465.8500979999999</c:v>
+                  <c:v>2898</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3461.6000979999999</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3500.8000489999999</c:v>
+                  <c:v>2899.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3511.9499510000001</c:v>
+                  <c:v>2902.3500979999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3545.8999020000001</c:v>
+                  <c:v>2899.5500489999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3554</c:v>
+                  <c:v>2929.6999510000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3584.5</c:v>
+                  <c:v>2982.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3598.1999510000001</c:v>
+                  <c:v>3012.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3677.8500979999999</c:v>
+                  <c:v>3019.4499510000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3659.6999510000001</c:v>
+                  <c:v>3034.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3672.3000489999999</c:v>
+                  <c:v>3041.3999020000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3704.6499020000001</c:v>
+                  <c:v>3139.75</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3677.5500489999999</c:v>
+                  <c:v>3131.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3523.3999020000001</c:v>
+                  <c:v>3132</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3479.25</c:v>
+                  <c:v>3138.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3400.1999510000001</c:v>
+                  <c:v>3092.4499510000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3368.5500489999999</c:v>
+                  <c:v>3109.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3395.25</c:v>
+                  <c:v>3084.4499510000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3425.1000979999999</c:v>
+                  <c:v>3084.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3432.9499510000001</c:v>
+                  <c:v>3120.6000979999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3429.5500489999999</c:v>
+                  <c:v>3101.5</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3435.3500979999999</c:v>
+                  <c:v>3123.5500489999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3501.75</c:v>
+                  <c:v>3128.3999020000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3503.3000489999999</c:v>
+                  <c:v>3137.3999020000001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3507.5</c:v>
+                  <c:v>3144.3999020000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3471.25</c:v>
+                  <c:v>3192.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3500.8999020000001</c:v>
+                  <c:v>3240.6999510000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3531.6000979999999</c:v>
+                  <c:v>3237.25</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3536.8500979999999</c:v>
+                  <c:v>3199.75</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3527.75</c:v>
+                  <c:v>3212.75</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3544.0500489999999</c:v>
+                  <c:v>3224.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3546.8000489999999</c:v>
+                  <c:v>3212.25</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3632.1000979999999</c:v>
+                  <c:v>3180.5500489999999</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3629.3999020000001</c:v>
+                  <c:v>3194.75</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3677.8999020000001</c:v>
+                  <c:v>3262.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3704.8500979999999</c:v>
+                  <c:v>3270.1999510000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>3917.6999510000001</c:v>
+                  <c:v>3294.3500979999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4085.6000979999999</c:v>
+                  <c:v>3316.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3975.6999510000001</c:v>
+                  <c:v>3309.6999510000001</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>3986.8999020000001</c:v>
+                  <c:v>3318.6999510000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>3919.5</c:v>
+                  <c:v>3316.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3812.1499020000001</c:v>
+                  <c:v>3248.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>3744.0500489999999</c:v>
+                  <c:v>3297.6999510000001</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>3848.25</c:v>
+                  <c:v>3308.1499020000001</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3872.1000979999999</c:v>
+                  <c:v>3326</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3872.1000979999999</c:v>
+                  <c:v>3326</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3889.1999510000001</c:v>
+                  <c:v>3362.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3868.6000979999999</c:v>
+                  <c:v>3358.6999510000001</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3857.1999510000001</c:v>
+                  <c:v>3347.6999510000001</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3820.1000979999999</c:v>
+                  <c:v>3374.3999020000001</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3815.8999020000001</c:v>
+                  <c:v>3399.3999020000001</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3808.9499510000001</c:v>
+                  <c:v>3343.6999510000001</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3767.6999510000001</c:v>
+                  <c:v>3343.1499020000001</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>3827.1000979999999</c:v>
+                  <c:v>3392.5500489999999</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>3806.3500979999999</c:v>
+                  <c:v>3406.75</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>3821.6499020000001</c:v>
+                  <c:v>3398.5500489999999</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>3838.75</c:v>
+                  <c:v>3429.75</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>3713.5500489999999</c:v>
+                  <c:v>3460.3999020000001</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3676.5</c:v>
+                  <c:v>3513.4499510000001</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3705.8500979999999</c:v>
+                  <c:v>3514.6499020000001</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3678.8000489999999</c:v>
+                  <c:v>3526</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3675.6999510000001</c:v>
+                  <c:v>3517.6999510000001</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3668.1999510000001</c:v>
+                  <c:v>3543.6999510000001</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3677.0500489999999</c:v>
+                  <c:v>3400.3999020000001</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3712.6499020000001</c:v>
+                  <c:v>3373</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3693.3500979999999</c:v>
+                  <c:v>3369.3999020000001</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3713.8999020000001</c:v>
+                  <c:v>3390.6999510000001</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3752.8000489999999</c:v>
+                  <c:v>3377.3500979999999</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3740.3000489999999</c:v>
+                  <c:v>3342.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>3713.3999020000001</c:v>
+                  <c:v>3362.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3699.8999020000001</c:v>
+                  <c:v>3336.3500979999999</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3652.1000979999999</c:v>
+                  <c:v>3339.6499020000001</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3640.3500979999999</c:v>
+                  <c:v>3343</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3648.4499510000001</c:v>
+                  <c:v>3348.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3628.75</c:v>
+                  <c:v>3331</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3598.1999510000001</c:v>
+                  <c:v>3237.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3550.0500489999999</c:v>
+                  <c:v>3185.3500979999999</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>3509.3000489999999</c:v>
+                  <c:v>3202.6000979999999</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>3499.3500979999999</c:v>
+                  <c:v>3194.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3507.6499020000001</c:v>
+                  <c:v>3183.25</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3540.9499510000001</c:v>
+                  <c:v>3163.5500489999999</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>3547.6999510000001</c:v>
+                  <c:v>3182.3000489999999</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>3568.8999020000001</c:v>
+                  <c:v>3179.6999510000001</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>3539.3000489999999</c:v>
+                  <c:v>3168.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>3561.5</c:v>
+                  <c:v>3225.6000979999999</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>3534.6000979999999</c:v>
+                  <c:v>3259.3000489999999</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>3592.8999020000001</c:v>
+                  <c:v>3259.6999510000001</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>3664.3500979999999</c:v>
+                  <c:v>3285.6999510000001</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>3736.3000489999999</c:v>
+                  <c:v>3294.6999510000001</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>3720.3999020000001</c:v>
+                  <c:v>3256.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>3761.0500489999999</c:v>
+                  <c:v>3259.5500489999999</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>3755.75</c:v>
+                  <c:v>3235.5500489999999</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3776.8999020000001</c:v>
+                  <c:v>3223.3000489999999</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>3796.8000489999999</c:v>
+                  <c:v>3225.3000489999999</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>3785.1000979999999</c:v>
+                  <c:v>3246.3500979999999</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>3782.3999020000001</c:v>
+                  <c:v>3238.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3810.75</c:v>
+                  <c:v>3259.3999020000001</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3753.25</c:v>
+                  <c:v>3256.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3813.6999510000001</c:v>
+                  <c:v>3277.75</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3808.0500489999999</c:v>
+                  <c:v>3240.25</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3796</c:v>
+                  <c:v>3196.6499020000001</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3797.8999020000001</c:v>
+                  <c:v>3206.3000489999999</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>3729.3999020000001</c:v>
+                  <c:v>3214.3500979999999</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3686.9499510000001</c:v>
+                  <c:v>3244.1999510000001</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3689.1000979999999</c:v>
+                  <c:v>3274.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3664.1000979999999</c:v>
+                  <c:v>3323.25</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3633.6000979999999</c:v>
+                  <c:v>3292.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3640.6999510000001</c:v>
+                  <c:v>3301.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3671.0500489999999</c:v>
+                  <c:v>3170.3500979999999</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3675.6000979999999</c:v>
+                  <c:v>3161.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3725.6999510000001</c:v>
+                  <c:v>3166.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3872.9499510000001</c:v>
+                  <c:v>3169.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3861.5</c:v>
+                  <c:v>3206.25</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3833.9499510000001</c:v>
+                  <c:v>3195.75</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3798.6000979999999</c:v>
+                  <c:v>3152.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3793.8000489999999</c:v>
+                  <c:v>3151.5</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3852.0500489999999</c:v>
+                  <c:v>3163.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3862.75</c:v>
+                  <c:v>3159.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>3935.8500979999999</c:v>
+                  <c:v>3148.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>3856.8000489999999</c:v>
+                  <c:v>3112.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>3842.8500979999999</c:v>
+                  <c:v>3113.5500489999999</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>3795.9499510000001</c:v>
+                  <c:v>3096.4499510000001</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>3766.8500979999999</c:v>
+                  <c:v>3101.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>3749.5</c:v>
+                  <c:v>3105.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>3668.9499510000001</c:v>
+                  <c:v>3072</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>3740.5500489999999</c:v>
+                  <c:v>3060.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>3684.6499020000001</c:v>
+                  <c:v>2960.3000489999999</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>3665.4499510000001</c:v>
+                  <c:v>2955.1499020000001</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>3646.6499020000001</c:v>
+                  <c:v>2967.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>3633.3999020000001</c:v>
+                  <c:v>2995.6999510000001</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>3639.4499510000001</c:v>
+                  <c:v>2934.5500489999999</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>3647.4499510000001</c:v>
+                  <c:v>2955.3999020000001</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>3649.6999510000001</c:v>
+                  <c:v>2977.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>3649.5500489999999</c:v>
+                  <c:v>3029.3000489999999</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>3653.3000489999999</c:v>
+                  <c:v>3033.3500979999999</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>3712.3999020000001</c:v>
+                  <c:v>3095.25</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>3747.6000979999999</c:v>
+                  <c:v>3080.1999510000001</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>3798.3999020000001</c:v>
+                  <c:v>3076.4499510000001</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>3798.4499510000001</c:v>
+                  <c:v>3085.6000979999999</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>3791.9499510000001</c:v>
+                  <c:v>3116.1999510000001</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>3790.25</c:v>
+                  <c:v>3130.3000489999999</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>3810.8999020000001</c:v>
+                  <c:v>3168.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>3792.8999020000001</c:v>
+                  <c:v>3140.3500979999999</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>3814.9499510000001</c:v>
+                  <c:v>3133.25</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>3838.25</c:v>
+                  <c:v>3133</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>3844.3999020000001</c:v>
+                  <c:v>3122.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>3842.8999020000001</c:v>
+                  <c:v>3136.1499020000001</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>3912.1499020000001</c:v>
+                  <c:v>3148.3500979999999</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>3861.5</c:v>
+                  <c:v>3148.3500979999999</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>3949.75</c:v>
+                  <c:v>3119.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>3988.3999020000001</c:v>
+                  <c:v>3173.3999020000001</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>3967.1000979999999</c:v>
+                  <c:v>3194.5500489999999</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>4039.5500489999999</c:v>
+                  <c:v>3226.25</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>4137.1499020000001</c:v>
+                  <c:v>3252.5500489999999</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>4115.4501950000003</c:v>
+                  <c:v>3251.8000489999999</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>4070.6499020000001</c:v>
+                  <c:v>3232</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>4069.75</c:v>
+                  <c:v>3233</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>4075.3999020000001</c:v>
+                  <c:v>3224.75</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>4033.0500489999999</c:v>
+                  <c:v>3243.6499020000001</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>4070.0500489999999</c:v>
+                  <c:v>3241.3500979999999</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>4045.6499020000001</c:v>
+                  <c:v>3313.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>4010.1499020000001</c:v>
+                  <c:v>3332.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>4021.3500979999999</c:v>
+                  <c:v>3336.0500489999999</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>3965.8999020000001</c:v>
+                  <c:v>3297.1499020000001</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>3954.5</c:v>
+                  <c:v>3302.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>4007.9499510000001</c:v>
+                  <c:v>3341.3000489999999</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>4023.4499510000001</c:v>
+                  <c:v>3383.3500979999999</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>4027.4499510000001</c:v>
+                  <c:v>3404.4499510000001</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>4044.6499020000001</c:v>
+                  <c:v>3397.25</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>4082.6499020000001</c:v>
+                  <c:v>3402.3999020000001</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>4064.75</c:v>
+                  <c:v>3396.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>4103.3500979999999</c:v>
+                  <c:v>3391.3500979999999</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>3932.3500979999999</c:v>
+                  <c:v>3373.6000979999999</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>3897.8500979999999</c:v>
+                  <c:v>3379.9499510000001</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>3863.5</c:v>
+                  <c:v>3355.5500489999999</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>3804.3999020000001</c:v>
+                  <c:v>3298.3999020000001</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>3810.75</c:v>
+                  <c:v>3267.5</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>3822</c:v>
+                  <c:v>3286.8500979999999</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>3821.3500979999999</c:v>
+                  <c:v>3288.1999510000001</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>3841</c:v>
+                  <c:v>3277.8000489999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6774,16 +6784,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6804,16 +6814,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7100,8 +7110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="A247" sqref="A247:M247"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7114,6 +7124,7 @@
     <col min="15" max="15" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -7164,11 +7175,11 @@
       </c>
       <c r="AD1" t="str">
         <f>O4</f>
-        <v>Asianpaints Close</v>
+        <v>Dmart Open</v>
       </c>
       <c r="AE1" t="str">
         <f>O5</f>
-        <v>Dmart Close</v>
+        <v>Asianpaints Close</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -7216,11 +7227,11 @@
       </c>
       <c r="AD2">
         <f>INDEX($A:$M,MATCH($AC2,$A:$A,0),MATCH($AD$1,$A$1:$M$1,0))</f>
-        <v>2916.0500489999999</v>
+        <v>3690</v>
       </c>
       <c r="AE2">
         <f>INDEX($A:$M,MATCH($AC2,$A:$A,0),MATCH($AE$1,$A$1:$M$1,0))</f>
-        <v>3678.3500979999999</v>
+        <v>2916.0500489999999</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -7271,11 +7282,11 @@
       </c>
       <c r="AD3">
         <f t="shared" ref="AD3:AD66" si="0">INDEX($A:$M,MATCH($AC3,$A:$A,0),MATCH($AD$1,$A$1:$M$1,0))</f>
-        <v>2940.8999020000001</v>
+        <v>3681.0500489999999</v>
       </c>
       <c r="AE3">
         <f t="shared" ref="AE3:AE66" si="1">INDEX($A:$M,MATCH($AC3,$A:$A,0),MATCH($AE$1,$A$1:$M$1,0))</f>
-        <v>3689.8000489999999</v>
+        <v>2940.8999020000001</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -7319,18 +7330,18 @@
         <v>407988</v>
       </c>
       <c r="O4" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="1">
         <v>44944</v>
       </c>
       <c r="AD4">
         <f t="shared" si="0"/>
-        <v>2945.25</v>
+        <v>3708.25</v>
       </c>
       <c r="AE4">
         <f t="shared" si="1"/>
-        <v>3648.6000979999999</v>
+        <v>2945.25</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -7374,18 +7385,18 @@
         <v>583389</v>
       </c>
       <c r="O5" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AC5" s="1">
         <v>44945</v>
       </c>
       <c r="AD5">
         <f t="shared" si="0"/>
-        <v>2866.1499020000001</v>
+        <v>3647</v>
       </c>
       <c r="AE5">
         <f t="shared" si="1"/>
-        <v>3565.1000979999999</v>
+        <v>2866.1499020000001</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -7430,18 +7441,18 @@
       </c>
       <c r="O6" t="str">
         <f>LEFT(O4,FIND(" ",O4,1)-1)</f>
-        <v>Asianpaints</v>
+        <v>Dmart</v>
       </c>
       <c r="AC6" s="1">
         <v>44946</v>
       </c>
       <c r="AD6">
         <f t="shared" si="0"/>
-        <v>2787.8000489999999</v>
+        <v>3571.9499510000001</v>
       </c>
       <c r="AE6">
         <f t="shared" si="1"/>
-        <v>3513.75</v>
+        <v>2787.8000489999999</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -7489,11 +7500,11 @@
       </c>
       <c r="AD7">
         <f t="shared" si="0"/>
-        <v>2784.4499510000001</v>
+        <v>3525</v>
       </c>
       <c r="AE7">
         <f t="shared" si="1"/>
-        <v>3434</v>
+        <v>2784.4499510000001</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -7541,11 +7552,11 @@
       </c>
       <c r="AD8">
         <f t="shared" si="0"/>
-        <v>2810.6000979999999</v>
+        <v>3450</v>
       </c>
       <c r="AE8">
         <f t="shared" si="1"/>
-        <v>3513.5</v>
+        <v>2810.6000979999999</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -7593,11 +7604,11 @@
       </c>
       <c r="AD9">
         <f t="shared" si="0"/>
-        <v>2775</v>
+        <v>3531.1000979999999</v>
       </c>
       <c r="AE9">
         <f t="shared" si="1"/>
-        <v>3515.1000979999999</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
@@ -7645,11 +7656,11 @@
       </c>
       <c r="AD10">
         <f t="shared" si="0"/>
-        <v>2722.6499020000001</v>
+        <v>3532.6999510000001</v>
       </c>
       <c r="AE10">
         <f t="shared" si="1"/>
-        <v>3562.3500979999999</v>
+        <v>2722.6499020000001</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -7697,11 +7708,11 @@
       </c>
       <c r="AD11">
         <f t="shared" si="0"/>
-        <v>2766.1999510000001</v>
+        <v>3574.8999020000001</v>
       </c>
       <c r="AE11">
         <f t="shared" si="1"/>
-        <v>3546.3000489999999</v>
+        <v>2766.1999510000001</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -7749,11 +7760,11 @@
       </c>
       <c r="AD12">
         <f t="shared" si="0"/>
-        <v>2725.8500979999999</v>
+        <v>3555.0500489999999</v>
       </c>
       <c r="AE12">
         <f t="shared" si="1"/>
-        <v>3502.3000489999999</v>
+        <v>2725.8500979999999</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -7801,11 +7812,11 @@
       </c>
       <c r="AD13">
         <f t="shared" si="0"/>
-        <v>2743.75</v>
+        <v>3558</v>
       </c>
       <c r="AE13">
         <f t="shared" si="1"/>
-        <v>3551.3500979999999</v>
+        <v>2743.75</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -7853,11 +7864,11 @@
       </c>
       <c r="AD14">
         <f t="shared" si="0"/>
-        <v>2705.6499020000001</v>
+        <v>3547</v>
       </c>
       <c r="AE14">
         <f t="shared" si="1"/>
-        <v>3502.8999020000001</v>
+        <v>2705.6499020000001</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -7905,11 +7916,11 @@
       </c>
       <c r="AD15">
         <f t="shared" si="0"/>
-        <v>2760.3999020000001</v>
+        <v>3517.6499020000001</v>
       </c>
       <c r="AE15">
         <f t="shared" si="1"/>
-        <v>3470.3500979999999</v>
+        <v>2760.3999020000001</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -7957,11 +7968,11 @@
       </c>
       <c r="AD16">
         <f t="shared" si="0"/>
-        <v>2754.1999510000001</v>
+        <v>3476.5</v>
       </c>
       <c r="AE16">
         <f t="shared" si="1"/>
-        <v>3441.5</v>
+        <v>2754.1999510000001</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -8009,11 +8020,11 @@
       </c>
       <c r="AD17">
         <f t="shared" si="0"/>
-        <v>2758.0500489999999</v>
+        <v>3471.5</v>
       </c>
       <c r="AE17">
         <f t="shared" si="1"/>
-        <v>3440.8999020000001</v>
+        <v>2758.0500489999999</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
@@ -8064,11 +8075,11 @@
       </c>
       <c r="AD18">
         <f t="shared" si="0"/>
-        <v>2765.6000979999999</v>
+        <v>3449</v>
       </c>
       <c r="AE18">
         <f t="shared" si="1"/>
-        <v>3458.6000979999999</v>
+        <v>2765.6000979999999</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -8116,18 +8127,18 @@
       </c>
       <c r="R19">
         <f>INDEX($A:$M,MATCH($R$18,$A:$A,0),MATCH($O$6&amp;" "&amp;$Q19,$A$1:$M$1,0))</f>
-        <v>2925</v>
+        <v>3690</v>
       </c>
       <c r="AC19" s="1">
         <v>44966</v>
       </c>
       <c r="AD19">
         <f t="shared" si="0"/>
-        <v>2814.6000979999999</v>
+        <v>3469.6499020000001</v>
       </c>
       <c r="AE19">
         <f t="shared" si="1"/>
-        <v>3482.0500489999999</v>
+        <v>2814.6000979999999</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -8175,18 +8186,18 @@
       </c>
       <c r="R20">
         <f t="shared" ref="R20" si="2">INDEX($A:$M,MATCH($R$18,$A:$A,0),MATCH($O$6&amp;" "&amp;$Q20,$A$1:$M$1,0))</f>
-        <v>2896</v>
+        <v>3645.1999510000001</v>
       </c>
       <c r="AC20" s="1">
         <v>44967</v>
       </c>
       <c r="AD20">
         <f t="shared" si="0"/>
-        <v>2804.6000979999999</v>
+        <v>3499.5</v>
       </c>
       <c r="AE20">
         <f t="shared" si="1"/>
-        <v>3498.8500979999999</v>
+        <v>2804.6000979999999</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -8234,18 +8245,18 @@
       </c>
       <c r="R21">
         <f>INDEX($A:$M,MATCH($R$18,$A:$A,0),MATCH($O$6&amp;" "&amp;$Q21,$A$1:$M$1,0))</f>
-        <v>2929.6000979999999</v>
+        <v>3748</v>
       </c>
       <c r="AC21" s="1">
         <v>44970</v>
       </c>
       <c r="AD21">
         <f t="shared" si="0"/>
-        <v>2790.75</v>
+        <v>3502</v>
       </c>
       <c r="AE21">
         <f t="shared" si="1"/>
-        <v>3495.1999510000001</v>
+        <v>2790.75</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
@@ -8293,18 +8304,18 @@
       </c>
       <c r="R22">
         <f>MIN(INDEX(A:M,0,MATCH(O6&amp;" "&amp;Q20,A1:M1,0)))</f>
-        <v>2685.8500979999999</v>
+        <v>3292</v>
       </c>
       <c r="AC22" s="1">
         <v>44971</v>
       </c>
       <c r="AD22">
         <f t="shared" si="0"/>
-        <v>2777</v>
+        <v>3509</v>
       </c>
       <c r="AE22">
         <f t="shared" si="1"/>
-        <v>3482.6999510000001</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -8352,18 +8363,18 @@
       </c>
       <c r="R23">
         <f>MAX(INDEX(A:M,0,MATCH(O6&amp;" "&amp;Q21,A1:M1,0)))</f>
-        <v>3568</v>
+        <v>4206</v>
       </c>
       <c r="AC23" s="1">
         <v>44972</v>
       </c>
       <c r="AD23">
         <f t="shared" si="0"/>
-        <v>2786.1499020000001</v>
+        <v>3480</v>
       </c>
       <c r="AE23">
         <f t="shared" si="1"/>
-        <v>3545.6000979999999</v>
+        <v>2786.1499020000001</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
@@ -8411,11 +8422,11 @@
       </c>
       <c r="AD24">
         <f t="shared" si="0"/>
-        <v>2805.9499510000001</v>
+        <v>3546</v>
       </c>
       <c r="AE24">
         <f t="shared" si="1"/>
-        <v>3541.6999510000001</v>
+        <v>2805.9499510000001</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -8463,11 +8474,11 @@
       </c>
       <c r="AD25">
         <f t="shared" si="0"/>
-        <v>2833.6000979999999</v>
+        <v>3530</v>
       </c>
       <c r="AE25">
         <f t="shared" si="1"/>
-        <v>3545</v>
+        <v>2833.6000979999999</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
@@ -8515,11 +8526,11 @@
       </c>
       <c r="AD26">
         <f t="shared" si="0"/>
-        <v>2825.5500489999999</v>
+        <v>3545.9499510000001</v>
       </c>
       <c r="AE26">
         <f t="shared" si="1"/>
-        <v>3552.8500979999999</v>
+        <v>2825.5500489999999</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -8567,11 +8578,11 @@
       </c>
       <c r="AD27">
         <f t="shared" si="0"/>
-        <v>2817.1000979999999</v>
+        <v>3570</v>
       </c>
       <c r="AE27">
         <f t="shared" si="1"/>
-        <v>3525.6000979999999</v>
+        <v>2817.1000979999999</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
@@ -8619,11 +8630,11 @@
       </c>
       <c r="AD28">
         <f t="shared" si="0"/>
-        <v>2795.9499510000001</v>
+        <v>3502</v>
       </c>
       <c r="AE28">
         <f t="shared" si="1"/>
-        <v>3500.1499020000001</v>
+        <v>2795.9499510000001</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
@@ -8671,11 +8682,11 @@
       </c>
       <c r="AD29">
         <f t="shared" si="0"/>
-        <v>2705.9499510000001</v>
+        <v>3503.8999020000001</v>
       </c>
       <c r="AE29">
         <f t="shared" si="1"/>
-        <v>3478.75</v>
+        <v>2705.9499510000001</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
@@ -8723,11 +8734,11 @@
       </c>
       <c r="AD30">
         <f t="shared" si="0"/>
-        <v>2738.5</v>
+        <v>3496.1499020000001</v>
       </c>
       <c r="AE30">
         <f t="shared" si="1"/>
-        <v>3499.1999510000001</v>
+        <v>2738.5</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
@@ -8775,11 +8786,11 @@
       </c>
       <c r="AD31">
         <f t="shared" si="0"/>
-        <v>2749.8999020000001</v>
+        <v>3485.0500489999999</v>
       </c>
       <c r="AE31">
         <f t="shared" si="1"/>
-        <v>3491.3000489999999</v>
+        <v>2749.8999020000001</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
@@ -8827,11 +8838,11 @@
       </c>
       <c r="AD32">
         <f t="shared" si="0"/>
-        <v>2828.8000489999999</v>
+        <v>3490.1999510000001</v>
       </c>
       <c r="AE32">
         <f t="shared" si="1"/>
-        <v>3416.9499510000001</v>
+        <v>2828.8000489999999</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
@@ -8879,11 +8890,11 @@
       </c>
       <c r="AD33">
         <f t="shared" si="0"/>
-        <v>2840.8999020000001</v>
+        <v>3441.3999020000001</v>
       </c>
       <c r="AE33">
         <f t="shared" si="1"/>
-        <v>3439.3500979999999</v>
+        <v>2840.8999020000001</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
@@ -8931,11 +8942,11 @@
       </c>
       <c r="AD34">
         <f t="shared" si="0"/>
-        <v>2833.8999020000001</v>
+        <v>3447</v>
       </c>
       <c r="AE34">
         <f t="shared" si="1"/>
-        <v>3443.1999510000001</v>
+        <v>2833.8999020000001</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
@@ -8983,11 +8994,11 @@
       </c>
       <c r="AD35">
         <f t="shared" si="0"/>
-        <v>2828.8500979999999</v>
+        <v>3460.4499510000001</v>
       </c>
       <c r="AE35">
         <f t="shared" si="1"/>
-        <v>3463.25</v>
+        <v>2828.8500979999999</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
@@ -9035,11 +9046,11 @@
       </c>
       <c r="AD36">
         <f t="shared" si="0"/>
-        <v>2864.5500489999999</v>
+        <v>3480.6000979999999</v>
       </c>
       <c r="AE36">
         <f t="shared" si="1"/>
-        <v>3437.1499020000001</v>
+        <v>2864.5500489999999</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
@@ -9087,11 +9098,11 @@
       </c>
       <c r="AD37">
         <f t="shared" si="0"/>
-        <v>2859.5500489999999</v>
+        <v>3439.75</v>
       </c>
       <c r="AE37">
         <f t="shared" si="1"/>
-        <v>3389.6999510000001</v>
+        <v>2859.5500489999999</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
@@ -9139,11 +9150,11 @@
       </c>
       <c r="AD38">
         <f t="shared" si="0"/>
-        <v>2853.5500489999999</v>
+        <v>3393</v>
       </c>
       <c r="AE38">
         <f t="shared" si="1"/>
-        <v>3397.8500979999999</v>
+        <v>2853.5500489999999</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
@@ -9191,11 +9202,11 @@
       </c>
       <c r="AD39">
         <f t="shared" si="0"/>
-        <v>2830.1999510000001</v>
+        <v>3390</v>
       </c>
       <c r="AE39">
         <f t="shared" si="1"/>
-        <v>3391.8500979999999</v>
+        <v>2830.1999510000001</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
@@ -9243,11 +9254,11 @@
       </c>
       <c r="AD40">
         <f t="shared" si="0"/>
-        <v>2784.1999510000001</v>
+        <v>3391.8500979999999</v>
       </c>
       <c r="AE40">
         <f t="shared" si="1"/>
-        <v>3351.75</v>
+        <v>2784.1999510000001</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
@@ -9295,11 +9306,11 @@
       </c>
       <c r="AD41">
         <f t="shared" si="0"/>
-        <v>2745.6000979999999</v>
+        <v>3350</v>
       </c>
       <c r="AE41">
         <f t="shared" si="1"/>
-        <v>3350.9499510000001</v>
+        <v>2745.6000979999999</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
@@ -9347,11 +9358,11 @@
       </c>
       <c r="AD42">
         <f t="shared" si="0"/>
-        <v>2827.3999020000001</v>
+        <v>3350</v>
       </c>
       <c r="AE42">
         <f t="shared" si="1"/>
-        <v>3337.25</v>
+        <v>2827.3999020000001</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
@@ -9399,11 +9410,11 @@
       </c>
       <c r="AD43">
         <f t="shared" si="0"/>
-        <v>2893.25</v>
+        <v>3337.25</v>
       </c>
       <c r="AE43">
         <f t="shared" si="1"/>
-        <v>3382.1499020000001</v>
+        <v>2893.25</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
@@ -9451,11 +9462,11 @@
       </c>
       <c r="AD44">
         <f t="shared" si="0"/>
-        <v>2862.6499020000001</v>
+        <v>3398</v>
       </c>
       <c r="AE44">
         <f t="shared" si="1"/>
-        <v>3311.3000489999999</v>
+        <v>2862.6499020000001</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
@@ -9503,11 +9514,11 @@
       </c>
       <c r="AD45">
         <f t="shared" si="0"/>
-        <v>2855.1499020000001</v>
+        <v>3295</v>
       </c>
       <c r="AE45">
         <f t="shared" si="1"/>
-        <v>3366.1000979999999</v>
+        <v>2855.1499020000001</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
@@ -9555,11 +9566,11 @@
       </c>
       <c r="AD46">
         <f t="shared" si="0"/>
-        <v>2839.1000979999999</v>
+        <v>3371.8999020000001</v>
       </c>
       <c r="AE46">
         <f t="shared" si="1"/>
-        <v>3357.6000979999999</v>
+        <v>2839.1000979999999</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
@@ -9607,11 +9618,11 @@
       </c>
       <c r="AD47">
         <f t="shared" si="0"/>
-        <v>2839.8500979999999</v>
+        <v>3365</v>
       </c>
       <c r="AE47">
         <f t="shared" si="1"/>
-        <v>3361.3999020000001</v>
+        <v>2839.8500979999999</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
@@ -9659,11 +9670,11 @@
       </c>
       <c r="AD48">
         <f t="shared" si="0"/>
-        <v>2797.8000489999999</v>
+        <v>3361.3500979999999</v>
       </c>
       <c r="AE48">
         <f t="shared" si="1"/>
-        <v>3373.5</v>
+        <v>2797.8000489999999</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
@@ -9711,11 +9722,11 @@
       </c>
       <c r="AD49">
         <f t="shared" si="0"/>
-        <v>2798.5</v>
+        <v>3372</v>
       </c>
       <c r="AE49">
         <f t="shared" si="1"/>
-        <v>3358.3999020000001</v>
+        <v>2798.5</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
@@ -9763,11 +9774,11 @@
       </c>
       <c r="AD50">
         <f t="shared" si="0"/>
-        <v>2803.75</v>
+        <v>3367</v>
       </c>
       <c r="AE50">
         <f t="shared" si="1"/>
-        <v>3306.8000489999999</v>
+        <v>2803.75</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
@@ -9815,11 +9826,11 @@
       </c>
       <c r="AD51">
         <f t="shared" si="0"/>
-        <v>2784.4499510000001</v>
+        <v>3308</v>
       </c>
       <c r="AE51">
         <f t="shared" si="1"/>
-        <v>3316.4499510000001</v>
+        <v>2784.4499510000001</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
@@ -9867,11 +9878,11 @@
       </c>
       <c r="AD52">
         <f t="shared" si="0"/>
-        <v>2770.5</v>
+        <v>3320</v>
       </c>
       <c r="AE52">
         <f t="shared" si="1"/>
-        <v>3325.4499510000001</v>
+        <v>2770.5</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
@@ -9919,11 +9930,11 @@
       </c>
       <c r="AD53">
         <f t="shared" si="0"/>
-        <v>2761.6499020000001</v>
+        <v>3325</v>
       </c>
       <c r="AE53">
         <f t="shared" si="1"/>
-        <v>3401.0500489999999</v>
+        <v>2761.6499020000001</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
@@ -9971,11 +9982,11 @@
       </c>
       <c r="AD54">
         <f t="shared" si="0"/>
-        <v>2777</v>
+        <v>3413.0500489999999</v>
       </c>
       <c r="AE54">
         <f t="shared" si="1"/>
-        <v>3553.75</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
@@ -10023,11 +10034,11 @@
       </c>
       <c r="AD55">
         <f t="shared" si="0"/>
-        <v>2808.5</v>
+        <v>3571.9499510000001</v>
       </c>
       <c r="AE55">
         <f t="shared" si="1"/>
-        <v>3654.8500979999999</v>
+        <v>2808.5</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
@@ -10075,11 +10086,11 @@
       </c>
       <c r="AD56">
         <f t="shared" si="0"/>
-        <v>2809.8500979999999</v>
+        <v>3644.8500979999999</v>
       </c>
       <c r="AE56">
         <f t="shared" si="1"/>
-        <v>3496.1000979999999</v>
+        <v>2809.8500979999999</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
@@ -10127,11 +10138,11 @@
       </c>
       <c r="AD57">
         <f t="shared" si="0"/>
-        <v>2776.3500979999999</v>
+        <v>3504</v>
       </c>
       <c r="AE57">
         <f t="shared" si="1"/>
-        <v>3450.6999510000001</v>
+        <v>2776.3500979999999</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
@@ -10179,11 +10190,11 @@
       </c>
       <c r="AD58">
         <f t="shared" si="0"/>
-        <v>2753.8000489999999</v>
+        <v>3465</v>
       </c>
       <c r="AE58">
         <f t="shared" si="1"/>
-        <v>3454.1999510000001</v>
+        <v>2753.8000489999999</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
@@ -10231,11 +10242,11 @@
       </c>
       <c r="AD59">
         <f t="shared" si="0"/>
-        <v>2786.75</v>
+        <v>3467</v>
       </c>
       <c r="AE59">
         <f t="shared" si="1"/>
-        <v>3473.1000979999999</v>
+        <v>2786.75</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
@@ -10283,11 +10294,11 @@
       </c>
       <c r="AD60">
         <f t="shared" si="0"/>
-        <v>2809.75</v>
+        <v>3480</v>
       </c>
       <c r="AE60">
         <f t="shared" si="1"/>
-        <v>3501.0500489999999</v>
+        <v>2809.75</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
@@ -10335,11 +10346,11 @@
       </c>
       <c r="AD61">
         <f t="shared" si="0"/>
-        <v>2843.1000979999999</v>
+        <v>3500</v>
       </c>
       <c r="AE61">
         <f t="shared" si="1"/>
-        <v>3497.1000979999999</v>
+        <v>2843.1000979999999</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
@@ -10387,11 +10398,11 @@
       </c>
       <c r="AD62">
         <f t="shared" si="0"/>
-        <v>2854.6000979999999</v>
+        <v>3501.9499510000001</v>
       </c>
       <c r="AE62">
         <f t="shared" si="1"/>
-        <v>3506.8000489999999</v>
+        <v>2854.6000979999999</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
@@ -10439,11 +10450,11 @@
       </c>
       <c r="AD63">
         <f t="shared" si="0"/>
-        <v>2809.6999510000001</v>
+        <v>3506.75</v>
       </c>
       <c r="AE63">
         <f t="shared" si="1"/>
-        <v>3476.1999510000001</v>
+        <v>2809.6999510000001</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
@@ -10491,11 +10502,11 @@
       </c>
       <c r="AD64">
         <f t="shared" si="0"/>
-        <v>2843.8500979999999</v>
+        <v>3489.1999510000001</v>
       </c>
       <c r="AE64">
         <f t="shared" si="1"/>
-        <v>3482.1999510000001</v>
+        <v>2843.8500979999999</v>
       </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
@@ -10543,11 +10554,11 @@
       </c>
       <c r="AD65">
         <f t="shared" si="0"/>
-        <v>2882.1000979999999</v>
+        <v>3482.1000979999999</v>
       </c>
       <c r="AE65">
         <f t="shared" si="1"/>
-        <v>3455.8999020000001</v>
+        <v>2882.1000979999999</v>
       </c>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
@@ -10595,11 +10606,11 @@
       </c>
       <c r="AD66">
         <f t="shared" si="0"/>
-        <v>2891.1000979999999</v>
+        <v>3469.8000489999999</v>
       </c>
       <c r="AE66">
         <f t="shared" si="1"/>
-        <v>3467.1999510000001</v>
+        <v>2891.1000979999999</v>
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
@@ -10647,11 +10658,11 @@
       </c>
       <c r="AD67">
         <f t="shared" ref="AD67:AD130" si="3">INDEX($A:$M,MATCH($AC67,$A:$A,0),MATCH($AD$1,$A$1:$M$1,0))</f>
-        <v>2898</v>
+        <v>3469.0500489999999</v>
       </c>
       <c r="AE67">
         <f t="shared" ref="AE67:AE130" si="4">INDEX($A:$M,MATCH($AC67,$A:$A,0),MATCH($AE$1,$A$1:$M$1,0))</f>
-        <v>3465.8500979999999</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
@@ -10699,11 +10710,11 @@
       </c>
       <c r="AD68">
         <f t="shared" si="3"/>
-        <v>2910</v>
+        <v>3465.8500979999999</v>
       </c>
       <c r="AE68">
         <f t="shared" si="4"/>
-        <v>3461.6000979999999</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.25">
@@ -10751,11 +10762,11 @@
       </c>
       <c r="AD69">
         <f t="shared" si="3"/>
-        <v>2899.9499510000001</v>
+        <v>3460.1000979999999</v>
       </c>
       <c r="AE69">
         <f t="shared" si="4"/>
-        <v>3500.8000489999999</v>
+        <v>2899.9499510000001</v>
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
@@ -10803,11 +10814,11 @@
       </c>
       <c r="AD70">
         <f t="shared" si="3"/>
-        <v>2902.3500979999999</v>
+        <v>3500.8000489999999</v>
       </c>
       <c r="AE70">
         <f t="shared" si="4"/>
-        <v>3511.9499510000001</v>
+        <v>2902.3500979999999</v>
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.25">
@@ -10855,11 +10866,11 @@
       </c>
       <c r="AD71">
         <f t="shared" si="3"/>
-        <v>2899.5500489999999</v>
+        <v>3515</v>
       </c>
       <c r="AE71">
         <f t="shared" si="4"/>
-        <v>3545.8999020000001</v>
+        <v>2899.5500489999999</v>
       </c>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
@@ -10907,11 +10918,11 @@
       </c>
       <c r="AD72">
         <f t="shared" si="3"/>
-        <v>2929.6999510000001</v>
+        <v>3540</v>
       </c>
       <c r="AE72">
         <f t="shared" si="4"/>
-        <v>3554</v>
+        <v>2929.6999510000001</v>
       </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
@@ -10959,11 +10970,11 @@
       </c>
       <c r="AD73">
         <f t="shared" si="3"/>
-        <v>2982.8500979999999</v>
+        <v>3550</v>
       </c>
       <c r="AE73">
         <f t="shared" si="4"/>
-        <v>3584.5</v>
+        <v>2982.8500979999999</v>
       </c>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.25">
@@ -11011,11 +11022,11 @@
       </c>
       <c r="AD74">
         <f t="shared" si="3"/>
-        <v>3012.9499510000001</v>
+        <v>3560.0500489999999</v>
       </c>
       <c r="AE74">
         <f t="shared" si="4"/>
-        <v>3598.1999510000001</v>
+        <v>3012.9499510000001</v>
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
@@ -11063,11 +11074,11 @@
       </c>
       <c r="AD75">
         <f t="shared" si="3"/>
-        <v>3019.4499510000001</v>
+        <v>3615.1000979999999</v>
       </c>
       <c r="AE75">
         <f t="shared" si="4"/>
-        <v>3677.8500979999999</v>
+        <v>3019.4499510000001</v>
       </c>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
@@ -11115,11 +11126,11 @@
       </c>
       <c r="AD76">
         <f t="shared" si="3"/>
-        <v>3034.8000489999999</v>
+        <v>3721</v>
       </c>
       <c r="AE76">
         <f t="shared" si="4"/>
-        <v>3659.6999510000001</v>
+        <v>3034.8000489999999</v>
       </c>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.25">
@@ -11167,11 +11178,11 @@
       </c>
       <c r="AD77">
         <f t="shared" si="3"/>
-        <v>3041.3999020000001</v>
+        <v>3660</v>
       </c>
       <c r="AE77">
         <f t="shared" si="4"/>
-        <v>3672.3000489999999</v>
+        <v>3041.3999020000001</v>
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.25">
@@ -11219,11 +11230,11 @@
       </c>
       <c r="AD78">
         <f t="shared" si="3"/>
-        <v>3139.75</v>
+        <v>3673.3000489999999</v>
       </c>
       <c r="AE78">
         <f t="shared" si="4"/>
-        <v>3704.6499020000001</v>
+        <v>3139.75</v>
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.25">
@@ -11271,11 +11282,11 @@
       </c>
       <c r="AD79">
         <f t="shared" si="3"/>
-        <v>3131.1000979999999</v>
+        <v>3715</v>
       </c>
       <c r="AE79">
         <f t="shared" si="4"/>
-        <v>3677.5500489999999</v>
+        <v>3131.1000979999999</v>
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
@@ -11323,11 +11334,11 @@
       </c>
       <c r="AD80">
         <f t="shared" si="3"/>
-        <v>3132</v>
+        <v>3550</v>
       </c>
       <c r="AE80">
         <f t="shared" si="4"/>
-        <v>3523.3999020000001</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
@@ -11375,11 +11386,11 @@
       </c>
       <c r="AD81">
         <f t="shared" si="3"/>
-        <v>3138.1000979999999</v>
+        <v>3535.3999020000001</v>
       </c>
       <c r="AE81">
         <f t="shared" si="4"/>
-        <v>3479.25</v>
+        <v>3138.1000979999999</v>
       </c>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
@@ -11427,11 +11438,11 @@
       </c>
       <c r="AD82">
         <f t="shared" si="3"/>
-        <v>3092.4499510000001</v>
+        <v>3491.6999510000001</v>
       </c>
       <c r="AE82">
         <f t="shared" si="4"/>
-        <v>3400.1999510000001</v>
+        <v>3092.4499510000001</v>
       </c>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.25">
@@ -11479,11 +11490,11 @@
       </c>
       <c r="AD83">
         <f t="shared" si="3"/>
-        <v>3109.0500489999999</v>
+        <v>3420.0500489999999</v>
       </c>
       <c r="AE83">
         <f t="shared" si="4"/>
-        <v>3368.5500489999999</v>
+        <v>3109.0500489999999</v>
       </c>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
@@ -11531,11 +11542,11 @@
       </c>
       <c r="AD84">
         <f t="shared" si="3"/>
-        <v>3084.4499510000001</v>
+        <v>3390</v>
       </c>
       <c r="AE84">
         <f t="shared" si="4"/>
-        <v>3395.25</v>
+        <v>3084.4499510000001</v>
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
@@ -11583,11 +11594,11 @@
       </c>
       <c r="AD85">
         <f t="shared" si="3"/>
-        <v>3084.8999020000001</v>
+        <v>3400</v>
       </c>
       <c r="AE85">
         <f t="shared" si="4"/>
-        <v>3425.1000979999999</v>
+        <v>3084.8999020000001</v>
       </c>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.25">
@@ -11635,11 +11646,11 @@
       </c>
       <c r="AD86">
         <f t="shared" si="3"/>
-        <v>3120.6000979999999</v>
+        <v>3425.5</v>
       </c>
       <c r="AE86">
         <f t="shared" si="4"/>
-        <v>3432.9499510000001</v>
+        <v>3120.6000979999999</v>
       </c>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.25">
@@ -11687,11 +11698,11 @@
       </c>
       <c r="AD87">
         <f t="shared" si="3"/>
-        <v>3101.5</v>
+        <v>3432</v>
       </c>
       <c r="AE87">
         <f t="shared" si="4"/>
-        <v>3429.5500489999999</v>
+        <v>3101.5</v>
       </c>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.25">
@@ -11739,11 +11750,11 @@
       </c>
       <c r="AD88">
         <f t="shared" si="3"/>
-        <v>3123.5500489999999</v>
+        <v>3430</v>
       </c>
       <c r="AE88">
         <f t="shared" si="4"/>
-        <v>3435.3500979999999</v>
+        <v>3123.5500489999999</v>
       </c>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
@@ -11791,11 +11802,11 @@
       </c>
       <c r="AD89">
         <f t="shared" si="3"/>
-        <v>3128.3999020000001</v>
+        <v>3448.8999020000001</v>
       </c>
       <c r="AE89">
         <f t="shared" si="4"/>
-        <v>3501.75</v>
+        <v>3128.3999020000001</v>
       </c>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
@@ -11843,11 +11854,11 @@
       </c>
       <c r="AD90">
         <f t="shared" si="3"/>
-        <v>3137.3999020000001</v>
+        <v>3540</v>
       </c>
       <c r="AE90">
         <f t="shared" si="4"/>
-        <v>3503.3000489999999</v>
+        <v>3137.3999020000001</v>
       </c>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.25">
@@ -11895,11 +11906,11 @@
       </c>
       <c r="AD91">
         <f t="shared" si="3"/>
-        <v>3144.3999020000001</v>
+        <v>3517.9499510000001</v>
       </c>
       <c r="AE91">
         <f t="shared" si="4"/>
-        <v>3507.5</v>
+        <v>3144.3999020000001</v>
       </c>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
@@ -11947,11 +11958,11 @@
       </c>
       <c r="AD92">
         <f t="shared" si="3"/>
-        <v>3192.9499510000001</v>
+        <v>3519.8999020000001</v>
       </c>
       <c r="AE92">
         <f t="shared" si="4"/>
-        <v>3471.25</v>
+        <v>3192.9499510000001</v>
       </c>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.25">
@@ -11999,11 +12010,11 @@
       </c>
       <c r="AD93">
         <f t="shared" si="3"/>
-        <v>3240.6999510000001</v>
+        <v>3480</v>
       </c>
       <c r="AE93">
         <f t="shared" si="4"/>
-        <v>3500.8999020000001</v>
+        <v>3240.6999510000001</v>
       </c>
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.25">
@@ -12051,11 +12062,11 @@
       </c>
       <c r="AD94">
         <f t="shared" si="3"/>
-        <v>3237.25</v>
+        <v>3510</v>
       </c>
       <c r="AE94">
         <f t="shared" si="4"/>
-        <v>3531.6000979999999</v>
+        <v>3237.25</v>
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
@@ -12103,11 +12114,11 @@
       </c>
       <c r="AD95">
         <f t="shared" si="3"/>
-        <v>3199.75</v>
+        <v>3550</v>
       </c>
       <c r="AE95">
         <f t="shared" si="4"/>
-        <v>3536.8500979999999</v>
+        <v>3199.75</v>
       </c>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
@@ -12155,11 +12166,11 @@
       </c>
       <c r="AD96">
         <f t="shared" si="3"/>
-        <v>3212.75</v>
+        <v>3536</v>
       </c>
       <c r="AE96">
         <f t="shared" si="4"/>
-        <v>3527.75</v>
+        <v>3212.75</v>
       </c>
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.25">
@@ -12207,11 +12218,11 @@
       </c>
       <c r="AD97">
         <f t="shared" si="3"/>
-        <v>3224.8000489999999</v>
+        <v>3536</v>
       </c>
       <c r="AE97">
         <f t="shared" si="4"/>
-        <v>3544.0500489999999</v>
+        <v>3224.8000489999999</v>
       </c>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.25">
@@ -12259,11 +12270,11 @@
       </c>
       <c r="AD98">
         <f t="shared" si="3"/>
-        <v>3212.25</v>
+        <v>3554.8000489999999</v>
       </c>
       <c r="AE98">
         <f t="shared" si="4"/>
-        <v>3546.8000489999999</v>
+        <v>3212.25</v>
       </c>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.25">
@@ -12311,11 +12322,11 @@
       </c>
       <c r="AD99">
         <f t="shared" si="3"/>
-        <v>3180.5500489999999</v>
+        <v>3586</v>
       </c>
       <c r="AE99">
         <f t="shared" si="4"/>
-        <v>3632.1000979999999</v>
+        <v>3180.5500489999999</v>
       </c>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.25">
@@ -12363,11 +12374,11 @@
       </c>
       <c r="AD100">
         <f t="shared" si="3"/>
-        <v>3194.75</v>
+        <v>3646.9499510000001</v>
       </c>
       <c r="AE100">
         <f t="shared" si="4"/>
-        <v>3629.3999020000001</v>
+        <v>3194.75</v>
       </c>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.25">
@@ -12415,11 +12426,11 @@
       </c>
       <c r="AD101">
         <f t="shared" si="3"/>
-        <v>3262.8500979999999</v>
+        <v>3644</v>
       </c>
       <c r="AE101">
         <f t="shared" si="4"/>
-        <v>3677.8999020000001</v>
+        <v>3262.8500979999999</v>
       </c>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.25">
@@ -12467,11 +12478,11 @@
       </c>
       <c r="AD102">
         <f t="shared" si="3"/>
-        <v>3270.1999510000001</v>
+        <v>3693.75</v>
       </c>
       <c r="AE102">
         <f t="shared" si="4"/>
-        <v>3704.8500979999999</v>
+        <v>3270.1999510000001</v>
       </c>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.25">
@@ -12519,11 +12530,11 @@
       </c>
       <c r="AD103">
         <f t="shared" si="3"/>
-        <v>3294.3500979999999</v>
+        <v>3745</v>
       </c>
       <c r="AE103">
         <f t="shared" si="4"/>
-        <v>3917.6999510000001</v>
+        <v>3294.3500979999999</v>
       </c>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.25">
@@ -12571,11 +12582,11 @@
       </c>
       <c r="AD104">
         <f t="shared" si="3"/>
-        <v>3316.8500979999999</v>
+        <v>3952</v>
       </c>
       <c r="AE104">
         <f t="shared" si="4"/>
-        <v>4085.6000979999999</v>
+        <v>3316.8500979999999</v>
       </c>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.25">
@@ -12623,11 +12634,11 @@
       </c>
       <c r="AD105">
         <f t="shared" si="3"/>
-        <v>3309.6999510000001</v>
+        <v>4086</v>
       </c>
       <c r="AE105">
         <f t="shared" si="4"/>
-        <v>3975.6999510000001</v>
+        <v>3309.6999510000001</v>
       </c>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.25">
@@ -12675,11 +12686,11 @@
       </c>
       <c r="AD106">
         <f t="shared" si="3"/>
-        <v>3318.6999510000001</v>
+        <v>3985</v>
       </c>
       <c r="AE106">
         <f t="shared" si="4"/>
-        <v>3986.8999020000001</v>
+        <v>3318.6999510000001</v>
       </c>
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.25">
@@ -12727,11 +12738,11 @@
       </c>
       <c r="AD107">
         <f t="shared" si="3"/>
-        <v>3316.1000979999999</v>
+        <v>3987</v>
       </c>
       <c r="AE107">
         <f t="shared" si="4"/>
-        <v>3919.5</v>
+        <v>3316.1000979999999</v>
       </c>
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.25">
@@ -12779,11 +12790,11 @@
       </c>
       <c r="AD108">
         <f t="shared" si="3"/>
-        <v>3248.0500489999999</v>
+        <v>3935</v>
       </c>
       <c r="AE108">
         <f t="shared" si="4"/>
-        <v>3812.1499020000001</v>
+        <v>3248.0500489999999</v>
       </c>
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.25">
@@ -12831,11 +12842,11 @@
       </c>
       <c r="AD109">
         <f t="shared" si="3"/>
-        <v>3297.6999510000001</v>
+        <v>3823.9499510000001</v>
       </c>
       <c r="AE109">
         <f t="shared" si="4"/>
-        <v>3744.0500489999999</v>
+        <v>3297.6999510000001</v>
       </c>
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.25">
@@ -12883,11 +12894,11 @@
       </c>
       <c r="AD110">
         <f t="shared" si="3"/>
-        <v>3308.1499020000001</v>
+        <v>3744.0500489999999</v>
       </c>
       <c r="AE110">
         <f t="shared" si="4"/>
-        <v>3848.25</v>
+        <v>3308.1499020000001</v>
       </c>
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.25">
@@ -12935,11 +12946,11 @@
       </c>
       <c r="AD111">
         <f t="shared" si="3"/>
-        <v>3326</v>
+        <v>3849</v>
       </c>
       <c r="AE111">
         <f t="shared" si="4"/>
-        <v>3872.1000979999999</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.25">
@@ -12987,11 +12998,11 @@
       </c>
       <c r="AD112">
         <f t="shared" si="3"/>
-        <v>3326</v>
+        <v>3872.1000979999999</v>
       </c>
       <c r="AE112">
         <f t="shared" si="4"/>
-        <v>3872.1000979999999</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="113" spans="1:31" x14ac:dyDescent="0.25">
@@ -13039,11 +13050,11 @@
       </c>
       <c r="AD113">
         <f t="shared" si="3"/>
-        <v>3362.0500489999999</v>
+        <v>3965</v>
       </c>
       <c r="AE113">
         <f t="shared" si="4"/>
-        <v>3889.1999510000001</v>
+        <v>3362.0500489999999</v>
       </c>
     </row>
     <row r="114" spans="1:31" x14ac:dyDescent="0.25">
@@ -13091,11 +13102,11 @@
       </c>
       <c r="AD114">
         <f t="shared" si="3"/>
-        <v>3358.6999510000001</v>
+        <v>3889.1999510000001</v>
       </c>
       <c r="AE114">
         <f t="shared" si="4"/>
-        <v>3868.6000979999999</v>
+        <v>3358.6999510000001</v>
       </c>
     </row>
     <row r="115" spans="1:31" x14ac:dyDescent="0.25">
@@ -13143,11 +13154,11 @@
       </c>
       <c r="AD115">
         <f t="shared" si="3"/>
-        <v>3347.6999510000001</v>
+        <v>3929.9499510000001</v>
       </c>
       <c r="AE115">
         <f t="shared" si="4"/>
-        <v>3857.1999510000001</v>
+        <v>3347.6999510000001</v>
       </c>
     </row>
     <row r="116" spans="1:31" x14ac:dyDescent="0.25">
@@ -13195,11 +13206,11 @@
       </c>
       <c r="AD116">
         <f t="shared" si="3"/>
-        <v>3374.3999020000001</v>
+        <v>3880</v>
       </c>
       <c r="AE116">
         <f t="shared" si="4"/>
-        <v>3820.1000979999999</v>
+        <v>3374.3999020000001</v>
       </c>
     </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.25">
@@ -13247,11 +13258,11 @@
       </c>
       <c r="AD117">
         <f t="shared" si="3"/>
-        <v>3399.3999020000001</v>
+        <v>3844</v>
       </c>
       <c r="AE117">
         <f t="shared" si="4"/>
-        <v>3815.8999020000001</v>
+        <v>3399.3999020000001</v>
       </c>
     </row>
     <row r="118" spans="1:31" x14ac:dyDescent="0.25">
@@ -13299,11 +13310,11 @@
       </c>
       <c r="AD118">
         <f t="shared" si="3"/>
-        <v>3343.6999510000001</v>
+        <v>3818</v>
       </c>
       <c r="AE118">
         <f t="shared" si="4"/>
-        <v>3808.9499510000001</v>
+        <v>3343.6999510000001</v>
       </c>
     </row>
     <row r="119" spans="1:31" x14ac:dyDescent="0.25">
@@ -13351,11 +13362,11 @@
       </c>
       <c r="AD119">
         <f t="shared" si="3"/>
-        <v>3343.1499020000001</v>
+        <v>3810</v>
       </c>
       <c r="AE119">
         <f t="shared" si="4"/>
-        <v>3767.6999510000001</v>
+        <v>3343.1499020000001</v>
       </c>
     </row>
     <row r="120" spans="1:31" x14ac:dyDescent="0.25">
@@ -13403,11 +13414,11 @@
       </c>
       <c r="AD120">
         <f t="shared" si="3"/>
-        <v>3392.5500489999999</v>
+        <v>3786.9499510000001</v>
       </c>
       <c r="AE120">
         <f t="shared" si="4"/>
-        <v>3827.1000979999999</v>
+        <v>3392.5500489999999</v>
       </c>
     </row>
     <row r="121" spans="1:31" x14ac:dyDescent="0.25">
@@ -13455,11 +13466,11 @@
       </c>
       <c r="AD121">
         <f t="shared" si="3"/>
-        <v>3406.75</v>
+        <v>3847.1000979999999</v>
       </c>
       <c r="AE121">
         <f t="shared" si="4"/>
-        <v>3806.3500979999999</v>
+        <v>3406.75</v>
       </c>
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.25">
@@ -13507,11 +13518,11 @@
       </c>
       <c r="AD122">
         <f t="shared" si="3"/>
-        <v>3398.5500489999999</v>
+        <v>3823</v>
       </c>
       <c r="AE122">
         <f t="shared" si="4"/>
-        <v>3821.6499020000001</v>
+        <v>3398.5500489999999</v>
       </c>
     </row>
     <row r="123" spans="1:31" x14ac:dyDescent="0.25">
@@ -13559,11 +13570,11 @@
       </c>
       <c r="AD123">
         <f t="shared" si="3"/>
-        <v>3429.75</v>
+        <v>3840.8000489999999</v>
       </c>
       <c r="AE123">
         <f t="shared" si="4"/>
-        <v>3838.75</v>
+        <v>3429.75</v>
       </c>
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.25">
@@ -13611,11 +13622,11 @@
       </c>
       <c r="AD124">
         <f t="shared" si="3"/>
-        <v>3460.3999020000001</v>
+        <v>3796.8500979999999</v>
       </c>
       <c r="AE124">
         <f t="shared" si="4"/>
-        <v>3713.5500489999999</v>
+        <v>3460.3999020000001</v>
       </c>
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.25">
@@ -13663,11 +13674,11 @@
       </c>
       <c r="AD125">
         <f t="shared" si="3"/>
-        <v>3513.4499510000001</v>
+        <v>3700</v>
       </c>
       <c r="AE125">
         <f t="shared" si="4"/>
-        <v>3676.5</v>
+        <v>3513.4499510000001</v>
       </c>
     </row>
     <row r="126" spans="1:31" x14ac:dyDescent="0.25">
@@ -13715,11 +13726,11 @@
       </c>
       <c r="AD126">
         <f t="shared" si="3"/>
-        <v>3514.6499020000001</v>
+        <v>3689.9499510000001</v>
       </c>
       <c r="AE126">
         <f t="shared" si="4"/>
-        <v>3705.8500979999999</v>
+        <v>3514.6499020000001</v>
       </c>
     </row>
     <row r="127" spans="1:31" x14ac:dyDescent="0.25">
@@ -13767,11 +13778,11 @@
       </c>
       <c r="AD127">
         <f t="shared" si="3"/>
-        <v>3526</v>
+        <v>3705.8500979999999</v>
       </c>
       <c r="AE127">
         <f t="shared" si="4"/>
-        <v>3678.8000489999999</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="128" spans="1:31" x14ac:dyDescent="0.25">
@@ -13819,11 +13830,11 @@
       </c>
       <c r="AD128">
         <f t="shared" si="3"/>
-        <v>3517.6999510000001</v>
+        <v>3653</v>
       </c>
       <c r="AE128">
         <f t="shared" si="4"/>
-        <v>3675.6999510000001</v>
+        <v>3517.6999510000001</v>
       </c>
     </row>
     <row r="129" spans="1:31" x14ac:dyDescent="0.25">
@@ -13871,11 +13882,11 @@
       </c>
       <c r="AD129">
         <f t="shared" si="3"/>
-        <v>3543.6999510000001</v>
+        <v>3676</v>
       </c>
       <c r="AE129">
         <f t="shared" si="4"/>
-        <v>3668.1999510000001</v>
+        <v>3543.6999510000001</v>
       </c>
     </row>
     <row r="130" spans="1:31" x14ac:dyDescent="0.25">
@@ -13923,11 +13934,11 @@
       </c>
       <c r="AD130">
         <f t="shared" si="3"/>
-        <v>3400.3999020000001</v>
+        <v>3668.0500489999999</v>
       </c>
       <c r="AE130">
         <f t="shared" si="4"/>
-        <v>3677.0500489999999</v>
+        <v>3400.3999020000001</v>
       </c>
     </row>
     <row r="131" spans="1:31" x14ac:dyDescent="0.25">
@@ -13975,11 +13986,11 @@
       </c>
       <c r="AD131">
         <f t="shared" ref="AD131:AD194" si="5">INDEX($A:$M,MATCH($AC131,$A:$A,0),MATCH($AD$1,$A$1:$M$1,0))</f>
-        <v>3373</v>
+        <v>3691.5500489999999</v>
       </c>
       <c r="AE131">
         <f t="shared" ref="AE131:AE194" si="6">INDEX($A:$M,MATCH($AC131,$A:$A,0),MATCH($AE$1,$A$1:$M$1,0))</f>
-        <v>3712.6499020000001</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="132" spans="1:31" x14ac:dyDescent="0.25">
@@ -14027,11 +14038,11 @@
       </c>
       <c r="AD132">
         <f t="shared" si="5"/>
-        <v>3369.3999020000001</v>
+        <v>3717.8000489999999</v>
       </c>
       <c r="AE132">
         <f t="shared" si="6"/>
-        <v>3693.3500979999999</v>
+        <v>3369.3999020000001</v>
       </c>
     </row>
     <row r="133" spans="1:31" x14ac:dyDescent="0.25">
@@ -14079,11 +14090,11 @@
       </c>
       <c r="AD133">
         <f t="shared" si="5"/>
-        <v>3390.6999510000001</v>
+        <v>3704</v>
       </c>
       <c r="AE133">
         <f t="shared" si="6"/>
-        <v>3713.8999020000001</v>
+        <v>3390.6999510000001</v>
       </c>
     </row>
     <row r="134" spans="1:31" x14ac:dyDescent="0.25">
@@ -14131,11 +14142,11 @@
       </c>
       <c r="AD134">
         <f t="shared" si="5"/>
-        <v>3377.3500979999999</v>
+        <v>3713.0500489999999</v>
       </c>
       <c r="AE134">
         <f t="shared" si="6"/>
-        <v>3752.8000489999999</v>
+        <v>3377.3500979999999</v>
       </c>
     </row>
     <row r="135" spans="1:31" x14ac:dyDescent="0.25">
@@ -14183,11 +14194,11 @@
       </c>
       <c r="AD135">
         <f t="shared" si="5"/>
-        <v>3342.9499510000001</v>
+        <v>3758.9499510000001</v>
       </c>
       <c r="AE135">
         <f t="shared" si="6"/>
-        <v>3740.3000489999999</v>
+        <v>3342.9499510000001</v>
       </c>
     </row>
     <row r="136" spans="1:31" x14ac:dyDescent="0.25">
@@ -14235,11 +14246,11 @@
       </c>
       <c r="AD136">
         <f t="shared" si="5"/>
-        <v>3362.8999020000001</v>
+        <v>3750</v>
       </c>
       <c r="AE136">
         <f t="shared" si="6"/>
-        <v>3713.3999020000001</v>
+        <v>3362.8999020000001</v>
       </c>
     </row>
     <row r="137" spans="1:31" x14ac:dyDescent="0.25">
@@ -14287,11 +14298,11 @@
       </c>
       <c r="AD137">
         <f t="shared" si="5"/>
-        <v>3336.3500979999999</v>
+        <v>3713.3999020000001</v>
       </c>
       <c r="AE137">
         <f t="shared" si="6"/>
-        <v>3699.8999020000001</v>
+        <v>3336.3500979999999</v>
       </c>
     </row>
     <row r="138" spans="1:31" x14ac:dyDescent="0.25">
@@ -14339,11 +14350,11 @@
       </c>
       <c r="AD138">
         <f t="shared" si="5"/>
-        <v>3339.6499020000001</v>
+        <v>3699.8999020000001</v>
       </c>
       <c r="AE138">
         <f t="shared" si="6"/>
-        <v>3652.1000979999999</v>
+        <v>3339.6499020000001</v>
       </c>
     </row>
     <row r="139" spans="1:31" x14ac:dyDescent="0.25">
@@ -14391,11 +14402,11 @@
       </c>
       <c r="AD139">
         <f t="shared" si="5"/>
-        <v>3343</v>
+        <v>3661.8999020000001</v>
       </c>
       <c r="AE139">
         <f t="shared" si="6"/>
-        <v>3640.3500979999999</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="140" spans="1:31" x14ac:dyDescent="0.25">
@@ -14443,11 +14454,11 @@
       </c>
       <c r="AD140">
         <f t="shared" si="5"/>
-        <v>3348.0500489999999</v>
+        <v>3660</v>
       </c>
       <c r="AE140">
         <f t="shared" si="6"/>
-        <v>3648.4499510000001</v>
+        <v>3348.0500489999999</v>
       </c>
     </row>
     <row r="141" spans="1:31" x14ac:dyDescent="0.25">
@@ -14495,11 +14506,11 @@
       </c>
       <c r="AD141">
         <f t="shared" si="5"/>
-        <v>3331</v>
+        <v>3648.4499510000001</v>
       </c>
       <c r="AE141">
         <f t="shared" si="6"/>
-        <v>3628.75</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="142" spans="1:31" x14ac:dyDescent="0.25">
@@ -14547,11 +14558,11 @@
       </c>
       <c r="AD142">
         <f t="shared" si="5"/>
-        <v>3237.8999020000001</v>
+        <v>3633.9499510000001</v>
       </c>
       <c r="AE142">
         <f t="shared" si="6"/>
-        <v>3598.1999510000001</v>
+        <v>3237.8999020000001</v>
       </c>
     </row>
     <row r="143" spans="1:31" x14ac:dyDescent="0.25">
@@ -14599,11 +14610,11 @@
       </c>
       <c r="AD143">
         <f t="shared" si="5"/>
-        <v>3185.3500979999999</v>
+        <v>3600</v>
       </c>
       <c r="AE143">
         <f t="shared" si="6"/>
-        <v>3550.0500489999999</v>
+        <v>3185.3500979999999</v>
       </c>
     </row>
     <row r="144" spans="1:31" x14ac:dyDescent="0.25">
@@ -14651,11 +14662,11 @@
       </c>
       <c r="AD144">
         <f t="shared" si="5"/>
-        <v>3202.6000979999999</v>
+        <v>3567.9499510000001</v>
       </c>
       <c r="AE144">
         <f t="shared" si="6"/>
-        <v>3509.3000489999999</v>
+        <v>3202.6000979999999</v>
       </c>
     </row>
     <row r="145" spans="1:31" x14ac:dyDescent="0.25">
@@ -14703,11 +14714,11 @@
       </c>
       <c r="AD145">
         <f t="shared" si="5"/>
-        <v>3194.0500489999999</v>
+        <v>3527.9499510000001</v>
       </c>
       <c r="AE145">
         <f t="shared" si="6"/>
-        <v>3499.3500979999999</v>
+        <v>3194.0500489999999</v>
       </c>
     </row>
     <row r="146" spans="1:31" x14ac:dyDescent="0.25">
@@ -14755,11 +14766,11 @@
       </c>
       <c r="AD146">
         <f t="shared" si="5"/>
-        <v>3183.25</v>
+        <v>3509.25</v>
       </c>
       <c r="AE146">
         <f t="shared" si="6"/>
-        <v>3507.6499020000001</v>
+        <v>3183.25</v>
       </c>
     </row>
     <row r="147" spans="1:31" x14ac:dyDescent="0.25">
@@ -14807,11 +14818,11 @@
       </c>
       <c r="AD147">
         <f t="shared" si="5"/>
-        <v>3163.5500489999999</v>
+        <v>3510</v>
       </c>
       <c r="AE147">
         <f t="shared" si="6"/>
-        <v>3540.9499510000001</v>
+        <v>3163.5500489999999</v>
       </c>
     </row>
     <row r="148" spans="1:31" x14ac:dyDescent="0.25">
@@ -14859,11 +14870,11 @@
       </c>
       <c r="AD148">
         <f t="shared" si="5"/>
-        <v>3182.3000489999999</v>
+        <v>3540</v>
       </c>
       <c r="AE148">
         <f t="shared" si="6"/>
-        <v>3547.6999510000001</v>
+        <v>3182.3000489999999</v>
       </c>
     </row>
     <row r="149" spans="1:31" x14ac:dyDescent="0.25">
@@ -14911,11 +14922,11 @@
       </c>
       <c r="AD149">
         <f t="shared" si="5"/>
-        <v>3179.6999510000001</v>
+        <v>3550</v>
       </c>
       <c r="AE149">
         <f t="shared" si="6"/>
-        <v>3568.8999020000001</v>
+        <v>3179.6999510000001</v>
       </c>
     </row>
     <row r="150" spans="1:31" x14ac:dyDescent="0.25">
@@ -14963,11 +14974,11 @@
       </c>
       <c r="AD150">
         <f t="shared" si="5"/>
-        <v>3168.8000489999999</v>
+        <v>3582</v>
       </c>
       <c r="AE150">
         <f t="shared" si="6"/>
-        <v>3539.3000489999999</v>
+        <v>3168.8000489999999</v>
       </c>
     </row>
     <row r="151" spans="1:31" x14ac:dyDescent="0.25">
@@ -15015,11 +15026,11 @@
       </c>
       <c r="AD151">
         <f t="shared" si="5"/>
-        <v>3225.6000979999999</v>
+        <v>3550</v>
       </c>
       <c r="AE151">
         <f t="shared" si="6"/>
-        <v>3561.5</v>
+        <v>3225.6000979999999</v>
       </c>
     </row>
     <row r="152" spans="1:31" x14ac:dyDescent="0.25">
@@ -15067,11 +15078,11 @@
       </c>
       <c r="AD152">
         <f t="shared" si="5"/>
-        <v>3259.3000489999999</v>
+        <v>3554</v>
       </c>
       <c r="AE152">
         <f t="shared" si="6"/>
-        <v>3534.6000979999999</v>
+        <v>3259.3000489999999</v>
       </c>
     </row>
     <row r="153" spans="1:31" x14ac:dyDescent="0.25">
@@ -15119,11 +15130,11 @@
       </c>
       <c r="AD153">
         <f t="shared" si="5"/>
-        <v>3259.6999510000001</v>
+        <v>3533</v>
       </c>
       <c r="AE153">
         <f t="shared" si="6"/>
-        <v>3592.8999020000001</v>
+        <v>3259.6999510000001</v>
       </c>
     </row>
     <row r="154" spans="1:31" x14ac:dyDescent="0.25">
@@ -15171,11 +15182,11 @@
       </c>
       <c r="AD154">
         <f t="shared" si="5"/>
-        <v>3285.6999510000001</v>
+        <v>3632</v>
       </c>
       <c r="AE154">
         <f t="shared" si="6"/>
-        <v>3664.3500979999999</v>
+        <v>3285.6999510000001</v>
       </c>
     </row>
     <row r="155" spans="1:31" x14ac:dyDescent="0.25">
@@ -15223,11 +15234,11 @@
       </c>
       <c r="AD155">
         <f t="shared" si="5"/>
-        <v>3294.6999510000001</v>
+        <v>3693.9499510000001</v>
       </c>
       <c r="AE155">
         <f t="shared" si="6"/>
-        <v>3736.3000489999999</v>
+        <v>3294.6999510000001</v>
       </c>
     </row>
     <row r="156" spans="1:31" x14ac:dyDescent="0.25">
@@ -15275,11 +15286,11 @@
       </c>
       <c r="AD156">
         <f t="shared" si="5"/>
-        <v>3256.1000979999999</v>
+        <v>3736.3000489999999</v>
       </c>
       <c r="AE156">
         <f t="shared" si="6"/>
-        <v>3720.3999020000001</v>
+        <v>3256.1000979999999</v>
       </c>
     </row>
     <row r="157" spans="1:31" x14ac:dyDescent="0.25">
@@ -15327,11 +15338,11 @@
       </c>
       <c r="AD157">
         <f t="shared" si="5"/>
-        <v>3259.5500489999999</v>
+        <v>3730</v>
       </c>
       <c r="AE157">
         <f t="shared" si="6"/>
-        <v>3761.0500489999999</v>
+        <v>3259.5500489999999</v>
       </c>
     </row>
     <row r="158" spans="1:31" x14ac:dyDescent="0.25">
@@ -15379,11 +15390,11 @@
       </c>
       <c r="AD158">
         <f t="shared" si="5"/>
-        <v>3235.5500489999999</v>
+        <v>3771.9499510000001</v>
       </c>
       <c r="AE158">
         <f t="shared" si="6"/>
-        <v>3755.75</v>
+        <v>3235.5500489999999</v>
       </c>
     </row>
     <row r="159" spans="1:31" x14ac:dyDescent="0.25">
@@ -15431,11 +15442,11 @@
       </c>
       <c r="AD159">
         <f t="shared" si="5"/>
-        <v>3223.3000489999999</v>
+        <v>3759.9499510000001</v>
       </c>
       <c r="AE159">
         <f t="shared" si="6"/>
-        <v>3776.8999020000001</v>
+        <v>3223.3000489999999</v>
       </c>
     </row>
     <row r="160" spans="1:31" x14ac:dyDescent="0.25">
@@ -15483,11 +15494,11 @@
       </c>
       <c r="AD160">
         <f t="shared" si="5"/>
-        <v>3225.3000489999999</v>
+        <v>3777</v>
       </c>
       <c r="AE160">
         <f t="shared" si="6"/>
-        <v>3796.8000489999999</v>
+        <v>3225.3000489999999</v>
       </c>
     </row>
     <row r="161" spans="1:31" x14ac:dyDescent="0.25">
@@ -15535,11 +15546,11 @@
       </c>
       <c r="AD161">
         <f t="shared" si="5"/>
-        <v>3246.3500979999999</v>
+        <v>3815</v>
       </c>
       <c r="AE161">
         <f t="shared" si="6"/>
-        <v>3785.1000979999999</v>
+        <v>3246.3500979999999</v>
       </c>
     </row>
     <row r="162" spans="1:31" x14ac:dyDescent="0.25">
@@ -15587,11 +15598,11 @@
       </c>
       <c r="AD162">
         <f t="shared" si="5"/>
-        <v>3238.0500489999999</v>
+        <v>3820</v>
       </c>
       <c r="AE162">
         <f t="shared" si="6"/>
-        <v>3782.3999020000001</v>
+        <v>3238.0500489999999</v>
       </c>
     </row>
     <row r="163" spans="1:31" x14ac:dyDescent="0.25">
@@ -15639,11 +15650,11 @@
       </c>
       <c r="AD163">
         <f t="shared" si="5"/>
-        <v>3259.3999020000001</v>
+        <v>3791.6999510000001</v>
       </c>
       <c r="AE163">
         <f t="shared" si="6"/>
-        <v>3810.75</v>
+        <v>3259.3999020000001</v>
       </c>
     </row>
     <row r="164" spans="1:31" x14ac:dyDescent="0.25">
@@ -15691,11 +15702,11 @@
       </c>
       <c r="AD164">
         <f t="shared" si="5"/>
-        <v>3256.8500979999999</v>
+        <v>3836</v>
       </c>
       <c r="AE164">
         <f t="shared" si="6"/>
-        <v>3753.25</v>
+        <v>3256.8500979999999</v>
       </c>
     </row>
     <row r="165" spans="1:31" x14ac:dyDescent="0.25">
@@ -15743,11 +15754,11 @@
       </c>
       <c r="AD165">
         <f t="shared" si="5"/>
-        <v>3277.75</v>
+        <v>3760.9499510000001</v>
       </c>
       <c r="AE165">
         <f t="shared" si="6"/>
-        <v>3813.6999510000001</v>
+        <v>3277.75</v>
       </c>
     </row>
     <row r="166" spans="1:31" x14ac:dyDescent="0.25">
@@ -15795,11 +15806,11 @@
       </c>
       <c r="AD166">
         <f t="shared" si="5"/>
-        <v>3240.25</v>
+        <v>3845</v>
       </c>
       <c r="AE166">
         <f t="shared" si="6"/>
-        <v>3808.0500489999999</v>
+        <v>3240.25</v>
       </c>
     </row>
     <row r="167" spans="1:31" x14ac:dyDescent="0.25">
@@ -15847,11 +15858,11 @@
       </c>
       <c r="AD167">
         <f t="shared" si="5"/>
-        <v>3196.6499020000001</v>
+        <v>3819.8500979999999</v>
       </c>
       <c r="AE167">
         <f t="shared" si="6"/>
-        <v>3796</v>
+        <v>3196.6499020000001</v>
       </c>
     </row>
     <row r="168" spans="1:31" x14ac:dyDescent="0.25">
@@ -15899,11 +15910,11 @@
       </c>
       <c r="AD168">
         <f t="shared" si="5"/>
-        <v>3206.3000489999999</v>
+        <v>3795.8000489999999</v>
       </c>
       <c r="AE168">
         <f t="shared" si="6"/>
-        <v>3797.8999020000001</v>
+        <v>3206.3000489999999</v>
       </c>
     </row>
     <row r="169" spans="1:31" x14ac:dyDescent="0.25">
@@ -15951,11 +15962,11 @@
       </c>
       <c r="AD169">
         <f t="shared" si="5"/>
-        <v>3214.3500979999999</v>
+        <v>3789.9499510000001</v>
       </c>
       <c r="AE169">
         <f t="shared" si="6"/>
-        <v>3729.3999020000001</v>
+        <v>3214.3500979999999</v>
       </c>
     </row>
     <row r="170" spans="1:31" x14ac:dyDescent="0.25">
@@ -16003,11 +16014,11 @@
       </c>
       <c r="AD170">
         <f t="shared" si="5"/>
-        <v>3244.1999510000001</v>
+        <v>3747</v>
       </c>
       <c r="AE170">
         <f t="shared" si="6"/>
-        <v>3686.9499510000001</v>
+        <v>3244.1999510000001</v>
       </c>
     </row>
     <row r="171" spans="1:31" x14ac:dyDescent="0.25">
@@ -16055,11 +16066,11 @@
       </c>
       <c r="AD171">
         <f t="shared" si="5"/>
-        <v>3274.8500979999999</v>
+        <v>3687</v>
       </c>
       <c r="AE171">
         <f t="shared" si="6"/>
-        <v>3689.1000979999999</v>
+        <v>3274.8500979999999</v>
       </c>
     </row>
     <row r="172" spans="1:31" x14ac:dyDescent="0.25">
@@ -16107,11 +16118,11 @@
       </c>
       <c r="AD172">
         <f t="shared" si="5"/>
-        <v>3323.25</v>
+        <v>3700</v>
       </c>
       <c r="AE172">
         <f t="shared" si="6"/>
-        <v>3664.1000979999999</v>
+        <v>3323.25</v>
       </c>
     </row>
     <row r="173" spans="1:31" x14ac:dyDescent="0.25">
@@ -16159,11 +16170,11 @@
       </c>
       <c r="AD173">
         <f t="shared" si="5"/>
-        <v>3292.8000489999999</v>
+        <v>3664.1000979999999</v>
       </c>
       <c r="AE173">
         <f t="shared" si="6"/>
-        <v>3633.6000979999999</v>
+        <v>3292.8000489999999</v>
       </c>
     </row>
     <row r="174" spans="1:31" x14ac:dyDescent="0.25">
@@ -16211,11 +16222,11 @@
       </c>
       <c r="AD174">
         <f t="shared" si="5"/>
-        <v>3301.8000489999999</v>
+        <v>3650</v>
       </c>
       <c r="AE174">
         <f t="shared" si="6"/>
-        <v>3640.6999510000001</v>
+        <v>3301.8000489999999</v>
       </c>
     </row>
     <row r="175" spans="1:31" x14ac:dyDescent="0.25">
@@ -16263,11 +16274,11 @@
       </c>
       <c r="AD175">
         <f t="shared" si="5"/>
-        <v>3170.3500979999999</v>
+        <v>3692</v>
       </c>
       <c r="AE175">
         <f t="shared" si="6"/>
-        <v>3671.0500489999999</v>
+        <v>3170.3500979999999</v>
       </c>
     </row>
     <row r="176" spans="1:31" x14ac:dyDescent="0.25">
@@ -16315,11 +16326,11 @@
       </c>
       <c r="AD176">
         <f t="shared" si="5"/>
-        <v>3161.0500489999999</v>
+        <v>3671.0500489999999</v>
       </c>
       <c r="AE176">
         <f t="shared" si="6"/>
-        <v>3675.6000979999999</v>
+        <v>3161.0500489999999</v>
       </c>
     </row>
     <row r="177" spans="1:31" x14ac:dyDescent="0.25">
@@ -16367,11 +16378,11 @@
       </c>
       <c r="AD177">
         <f t="shared" si="5"/>
-        <v>3166.8500979999999</v>
+        <v>3675.3999020000001</v>
       </c>
       <c r="AE177">
         <f t="shared" si="6"/>
-        <v>3725.6999510000001</v>
+        <v>3166.8500979999999</v>
       </c>
     </row>
     <row r="178" spans="1:31" x14ac:dyDescent="0.25">
@@ -16419,11 +16430,11 @@
       </c>
       <c r="AD178">
         <f t="shared" si="5"/>
-        <v>3169.8999020000001</v>
+        <v>3760</v>
       </c>
       <c r="AE178">
         <f t="shared" si="6"/>
-        <v>3872.9499510000001</v>
+        <v>3169.8999020000001</v>
       </c>
     </row>
     <row r="179" spans="1:31" x14ac:dyDescent="0.25">
@@ -16471,11 +16482,11 @@
       </c>
       <c r="AD179">
         <f t="shared" si="5"/>
-        <v>3206.25</v>
+        <v>3880</v>
       </c>
       <c r="AE179">
         <f t="shared" si="6"/>
-        <v>3861.5</v>
+        <v>3206.25</v>
       </c>
     </row>
     <row r="180" spans="1:31" x14ac:dyDescent="0.25">
@@ -16523,11 +16534,11 @@
       </c>
       <c r="AD180">
         <f t="shared" si="5"/>
-        <v>3195.75</v>
+        <v>3860</v>
       </c>
       <c r="AE180">
         <f t="shared" si="6"/>
-        <v>3833.9499510000001</v>
+        <v>3195.75</v>
       </c>
     </row>
     <row r="181" spans="1:31" x14ac:dyDescent="0.25">
@@ -16575,11 +16586,11 @@
       </c>
       <c r="AD181">
         <f t="shared" si="5"/>
-        <v>3152.8000489999999</v>
+        <v>3809.6000979999999</v>
       </c>
       <c r="AE181">
         <f t="shared" si="6"/>
-        <v>3798.6000979999999</v>
+        <v>3152.8000489999999</v>
       </c>
     </row>
     <row r="182" spans="1:31" x14ac:dyDescent="0.25">
@@ -16627,11 +16638,11 @@
       </c>
       <c r="AD182">
         <f t="shared" si="5"/>
-        <v>3151.5</v>
+        <v>3809.9499510000001</v>
       </c>
       <c r="AE182">
         <f t="shared" si="6"/>
-        <v>3793.8000489999999</v>
+        <v>3151.5</v>
       </c>
     </row>
     <row r="183" spans="1:31" x14ac:dyDescent="0.25">
@@ -16679,11 +16690,11 @@
       </c>
       <c r="AD183">
         <f t="shared" si="5"/>
-        <v>3163.8999020000001</v>
+        <v>3812.5</v>
       </c>
       <c r="AE183">
         <f t="shared" si="6"/>
-        <v>3852.0500489999999</v>
+        <v>3163.8999020000001</v>
       </c>
     </row>
     <row r="184" spans="1:31" x14ac:dyDescent="0.25">
@@ -16731,11 +16742,11 @@
       </c>
       <c r="AD184">
         <f t="shared" si="5"/>
-        <v>3159.1000979999999</v>
+        <v>3874.8000489999999</v>
       </c>
       <c r="AE184">
         <f t="shared" si="6"/>
-        <v>3862.75</v>
+        <v>3159.1000979999999</v>
       </c>
     </row>
     <row r="185" spans="1:31" x14ac:dyDescent="0.25">
@@ -16783,11 +16794,11 @@
       </c>
       <c r="AD185">
         <f t="shared" si="5"/>
-        <v>3148.8000489999999</v>
+        <v>3853.9499510000001</v>
       </c>
       <c r="AE185">
         <f t="shared" si="6"/>
-        <v>3935.8500979999999</v>
+        <v>3148.8000489999999</v>
       </c>
     </row>
     <row r="186" spans="1:31" x14ac:dyDescent="0.25">
@@ -16835,11 +16846,11 @@
       </c>
       <c r="AD186">
         <f t="shared" si="5"/>
-        <v>3112.0500489999999</v>
+        <v>3825.0500489999999</v>
       </c>
       <c r="AE186">
         <f t="shared" si="6"/>
-        <v>3856.8000489999999</v>
+        <v>3112.0500489999999</v>
       </c>
     </row>
     <row r="187" spans="1:31" x14ac:dyDescent="0.25">
@@ -16887,11 +16898,11 @@
       </c>
       <c r="AD187">
         <f t="shared" si="5"/>
-        <v>3113.5500489999999</v>
+        <v>3879.1499020000001</v>
       </c>
       <c r="AE187">
         <f t="shared" si="6"/>
-        <v>3842.8500979999999</v>
+        <v>3113.5500489999999</v>
       </c>
     </row>
     <row r="188" spans="1:31" x14ac:dyDescent="0.25">
@@ -16939,11 +16950,11 @@
       </c>
       <c r="AD188">
         <f t="shared" si="5"/>
-        <v>3096.4499510000001</v>
+        <v>3842.8500979999999</v>
       </c>
       <c r="AE188">
         <f t="shared" si="6"/>
-        <v>3795.9499510000001</v>
+        <v>3096.4499510000001</v>
       </c>
     </row>
     <row r="189" spans="1:31" x14ac:dyDescent="0.25">
@@ -16991,11 +17002,11 @@
       </c>
       <c r="AD189">
         <f t="shared" si="5"/>
-        <v>3101.8000489999999</v>
+        <v>3790</v>
       </c>
       <c r="AE189">
         <f t="shared" si="6"/>
-        <v>3766.8500979999999</v>
+        <v>3101.8000489999999</v>
       </c>
     </row>
     <row r="190" spans="1:31" x14ac:dyDescent="0.25">
@@ -17043,11 +17054,11 @@
       </c>
       <c r="AD190">
         <f t="shared" si="5"/>
-        <v>3105.8500979999999</v>
+        <v>3760.0500489999999</v>
       </c>
       <c r="AE190">
         <f t="shared" si="6"/>
-        <v>3749.5</v>
+        <v>3105.8500979999999</v>
       </c>
     </row>
     <row r="191" spans="1:31" x14ac:dyDescent="0.25">
@@ -17095,11 +17106,11 @@
       </c>
       <c r="AD191">
         <f t="shared" si="5"/>
-        <v>3072</v>
+        <v>3750.0500489999999</v>
       </c>
       <c r="AE191">
         <f t="shared" si="6"/>
-        <v>3668.9499510000001</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="192" spans="1:31" x14ac:dyDescent="0.25">
@@ -17147,11 +17158,11 @@
       </c>
       <c r="AD192">
         <f t="shared" si="5"/>
-        <v>3060.8000489999999</v>
+        <v>3685</v>
       </c>
       <c r="AE192">
         <f t="shared" si="6"/>
-        <v>3740.5500489999999</v>
+        <v>3060.8000489999999</v>
       </c>
     </row>
     <row r="193" spans="1:31" x14ac:dyDescent="0.25">
@@ -17199,11 +17210,11 @@
       </c>
       <c r="AD193">
         <f t="shared" si="5"/>
-        <v>2960.3000489999999</v>
+        <v>3728.0500489999999</v>
       </c>
       <c r="AE193">
         <f t="shared" si="6"/>
-        <v>3684.6499020000001</v>
+        <v>2960.3000489999999</v>
       </c>
     </row>
     <row r="194" spans="1:31" x14ac:dyDescent="0.25">
@@ -17251,11 +17262,11 @@
       </c>
       <c r="AD194">
         <f t="shared" si="5"/>
-        <v>2955.1499020000001</v>
+        <v>3700</v>
       </c>
       <c r="AE194">
         <f t="shared" si="6"/>
-        <v>3665.4499510000001</v>
+        <v>2955.1499020000001</v>
       </c>
     </row>
     <row r="195" spans="1:31" x14ac:dyDescent="0.25">
@@ -17303,11 +17314,11 @@
       </c>
       <c r="AD195">
         <f t="shared" ref="AD195:AD246" si="7">INDEX($A:$M,MATCH($AC195,$A:$A,0),MATCH($AD$1,$A$1:$M$1,0))</f>
-        <v>2967.1000979999999</v>
+        <v>3686.6999510000001</v>
       </c>
       <c r="AE195">
         <f t="shared" ref="AE195:AE246" si="8">INDEX($A:$M,MATCH($AC195,$A:$A,0),MATCH($AE$1,$A$1:$M$1,0))</f>
-        <v>3646.6499020000001</v>
+        <v>2967.1000979999999</v>
       </c>
     </row>
     <row r="196" spans="1:31" x14ac:dyDescent="0.25">
@@ -17355,11 +17366,11 @@
       </c>
       <c r="AD196">
         <f t="shared" si="7"/>
-        <v>2995.6999510000001</v>
+        <v>3657.6499020000001</v>
       </c>
       <c r="AE196">
         <f t="shared" si="8"/>
-        <v>3633.3999020000001</v>
+        <v>2995.6999510000001</v>
       </c>
     </row>
     <row r="197" spans="1:31" x14ac:dyDescent="0.25">
@@ -17407,11 +17418,11 @@
       </c>
       <c r="AD197">
         <f t="shared" si="7"/>
-        <v>2934.5500489999999</v>
+        <v>3637.5</v>
       </c>
       <c r="AE197">
         <f t="shared" si="8"/>
-        <v>3639.4499510000001</v>
+        <v>2934.5500489999999</v>
       </c>
     </row>
     <row r="198" spans="1:31" x14ac:dyDescent="0.25">
@@ -17459,11 +17470,11 @@
       </c>
       <c r="AD198">
         <f t="shared" si="7"/>
-        <v>2955.3999020000001</v>
+        <v>3639</v>
       </c>
       <c r="AE198">
         <f t="shared" si="8"/>
-        <v>3647.4499510000001</v>
+        <v>2955.3999020000001</v>
       </c>
     </row>
     <row r="199" spans="1:31" x14ac:dyDescent="0.25">
@@ -17511,11 +17522,11 @@
       </c>
       <c r="AD199">
         <f t="shared" si="7"/>
-        <v>2977.8500979999999</v>
+        <v>3667.6000979999999</v>
       </c>
       <c r="AE199">
         <f t="shared" si="8"/>
-        <v>3649.6999510000001</v>
+        <v>2977.8500979999999</v>
       </c>
     </row>
     <row r="200" spans="1:31" x14ac:dyDescent="0.25">
@@ -17563,11 +17574,11 @@
       </c>
       <c r="AD200">
         <f t="shared" si="7"/>
-        <v>3029.3000489999999</v>
+        <v>3654.5500489999999</v>
       </c>
       <c r="AE200">
         <f t="shared" si="8"/>
-        <v>3649.5500489999999</v>
+        <v>3029.3000489999999</v>
       </c>
     </row>
     <row r="201" spans="1:31" x14ac:dyDescent="0.25">
@@ -17615,11 +17626,11 @@
       </c>
       <c r="AD201">
         <f t="shared" si="7"/>
-        <v>3033.3500979999999</v>
+        <v>3649.5</v>
       </c>
       <c r="AE201">
         <f t="shared" si="8"/>
-        <v>3653.3000489999999</v>
+        <v>3033.3500979999999</v>
       </c>
     </row>
     <row r="202" spans="1:31" x14ac:dyDescent="0.25">
@@ -17667,11 +17678,11 @@
       </c>
       <c r="AD202">
         <f t="shared" si="7"/>
-        <v>3095.25</v>
+        <v>3658</v>
       </c>
       <c r="AE202">
         <f t="shared" si="8"/>
-        <v>3712.3999020000001</v>
+        <v>3095.25</v>
       </c>
     </row>
     <row r="203" spans="1:31" x14ac:dyDescent="0.25">
@@ -17719,11 +17730,11 @@
       </c>
       <c r="AD203">
         <f t="shared" si="7"/>
-        <v>3080.1999510000001</v>
+        <v>3733.8999020000001</v>
       </c>
       <c r="AE203">
         <f t="shared" si="8"/>
-        <v>3747.6000979999999</v>
+        <v>3080.1999510000001</v>
       </c>
     </row>
     <row r="204" spans="1:31" x14ac:dyDescent="0.25">
@@ -17771,11 +17782,11 @@
       </c>
       <c r="AD204">
         <f t="shared" si="7"/>
-        <v>3076.4499510000001</v>
+        <v>3750</v>
       </c>
       <c r="AE204">
         <f t="shared" si="8"/>
-        <v>3798.3999020000001</v>
+        <v>3076.4499510000001</v>
       </c>
     </row>
     <row r="205" spans="1:31" x14ac:dyDescent="0.25">
@@ -17823,11 +17834,11 @@
       </c>
       <c r="AD205">
         <f t="shared" si="7"/>
-        <v>3085.6000979999999</v>
+        <v>3809.9499510000001</v>
       </c>
       <c r="AE205">
         <f t="shared" si="8"/>
-        <v>3798.4499510000001</v>
+        <v>3085.6000979999999</v>
       </c>
     </row>
     <row r="206" spans="1:31" x14ac:dyDescent="0.25">
@@ -17875,11 +17886,11 @@
       </c>
       <c r="AD206">
         <f t="shared" si="7"/>
-        <v>3116.1999510000001</v>
+        <v>3810</v>
       </c>
       <c r="AE206">
         <f t="shared" si="8"/>
-        <v>3791.9499510000001</v>
+        <v>3116.1999510000001</v>
       </c>
     </row>
     <row r="207" spans="1:31" x14ac:dyDescent="0.25">
@@ -17927,11 +17938,11 @@
       </c>
       <c r="AD207">
         <f t="shared" si="7"/>
-        <v>3130.3000489999999</v>
+        <v>3795</v>
       </c>
       <c r="AE207">
         <f t="shared" si="8"/>
-        <v>3790.25</v>
+        <v>3130.3000489999999</v>
       </c>
     </row>
     <row r="208" spans="1:31" x14ac:dyDescent="0.25">
@@ -17979,11 +17990,11 @@
       </c>
       <c r="AD208">
         <f t="shared" si="7"/>
-        <v>3168.8999020000001</v>
+        <v>3794.9499510000001</v>
       </c>
       <c r="AE208">
         <f t="shared" si="8"/>
-        <v>3810.8999020000001</v>
+        <v>3168.8999020000001</v>
       </c>
     </row>
     <row r="209" spans="1:31" x14ac:dyDescent="0.25">
@@ -18031,11 +18042,11 @@
       </c>
       <c r="AD209">
         <f t="shared" si="7"/>
-        <v>3140.3500979999999</v>
+        <v>3810.8999020000001</v>
       </c>
       <c r="AE209">
         <f t="shared" si="8"/>
-        <v>3792.8999020000001</v>
+        <v>3140.3500979999999</v>
       </c>
     </row>
     <row r="210" spans="1:31" x14ac:dyDescent="0.25">
@@ -18083,11 +18094,11 @@
       </c>
       <c r="AD210">
         <f t="shared" si="7"/>
-        <v>3133.25</v>
+        <v>3796</v>
       </c>
       <c r="AE210">
         <f t="shared" si="8"/>
-        <v>3814.9499510000001</v>
+        <v>3133.25</v>
       </c>
     </row>
     <row r="211" spans="1:31" x14ac:dyDescent="0.25">
@@ -18135,11 +18146,11 @@
       </c>
       <c r="AD211">
         <f t="shared" si="7"/>
-        <v>3133</v>
+        <v>3820</v>
       </c>
       <c r="AE211">
         <f t="shared" si="8"/>
-        <v>3838.25</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="212" spans="1:31" x14ac:dyDescent="0.25">
@@ -18187,11 +18198,11 @@
       </c>
       <c r="AD212">
         <f t="shared" si="7"/>
-        <v>3122.9499510000001</v>
+        <v>3848</v>
       </c>
       <c r="AE212">
         <f t="shared" si="8"/>
-        <v>3844.3999020000001</v>
+        <v>3122.9499510000001</v>
       </c>
     </row>
     <row r="213" spans="1:31" x14ac:dyDescent="0.25">
@@ -18239,11 +18250,11 @@
       </c>
       <c r="AD213">
         <f t="shared" si="7"/>
-        <v>3136.1499020000001</v>
+        <v>3820</v>
       </c>
       <c r="AE213">
         <f t="shared" si="8"/>
-        <v>3842.8999020000001</v>
+        <v>3136.1499020000001</v>
       </c>
     </row>
     <row r="214" spans="1:31" x14ac:dyDescent="0.25">
@@ -18291,11 +18302,11 @@
       </c>
       <c r="AD214">
         <f t="shared" si="7"/>
-        <v>3148.3500979999999</v>
+        <v>3815</v>
       </c>
       <c r="AE214">
         <f t="shared" si="8"/>
-        <v>3912.1499020000001</v>
+        <v>3148.3500979999999</v>
       </c>
     </row>
     <row r="215" spans="1:31" x14ac:dyDescent="0.25">
@@ -18343,11 +18354,11 @@
       </c>
       <c r="AD215">
         <f t="shared" si="7"/>
-        <v>3148.3500979999999</v>
+        <v>3915</v>
       </c>
       <c r="AE215">
         <f t="shared" si="8"/>
-        <v>3861.5</v>
+        <v>3148.3500979999999</v>
       </c>
     </row>
     <row r="216" spans="1:31" x14ac:dyDescent="0.25">
@@ -18395,11 +18406,11 @@
       </c>
       <c r="AD216">
         <f t="shared" si="7"/>
-        <v>3119.8999020000001</v>
+        <v>3878</v>
       </c>
       <c r="AE216">
         <f t="shared" si="8"/>
-        <v>3949.75</v>
+        <v>3119.8999020000001</v>
       </c>
     </row>
     <row r="217" spans="1:31" x14ac:dyDescent="0.25">
@@ -18447,11 +18458,11 @@
       </c>
       <c r="AD217">
         <f t="shared" si="7"/>
-        <v>3173.3999020000001</v>
+        <v>3969.6499020000001</v>
       </c>
       <c r="AE217">
         <f t="shared" si="8"/>
-        <v>3988.3999020000001</v>
+        <v>3173.3999020000001</v>
       </c>
     </row>
     <row r="218" spans="1:31" x14ac:dyDescent="0.25">
@@ -18499,11 +18510,11 @@
       </c>
       <c r="AD218">
         <f t="shared" si="7"/>
-        <v>3194.5500489999999</v>
+        <v>4000</v>
       </c>
       <c r="AE218">
         <f t="shared" si="8"/>
-        <v>3967.1000979999999</v>
+        <v>3194.5500489999999</v>
       </c>
     </row>
     <row r="219" spans="1:31" x14ac:dyDescent="0.25">
@@ -18551,11 +18562,11 @@
       </c>
       <c r="AD219">
         <f t="shared" si="7"/>
-        <v>3226.25</v>
+        <v>3950</v>
       </c>
       <c r="AE219">
         <f t="shared" si="8"/>
-        <v>4039.5500489999999</v>
+        <v>3226.25</v>
       </c>
     </row>
     <row r="220" spans="1:31" x14ac:dyDescent="0.25">
@@ -18603,11 +18614,11 @@
       </c>
       <c r="AD220">
         <f t="shared" si="7"/>
-        <v>3252.5500489999999</v>
+        <v>4039.5500489999999</v>
       </c>
       <c r="AE220">
         <f t="shared" si="8"/>
-        <v>4137.1499020000001</v>
+        <v>3252.5500489999999</v>
       </c>
     </row>
     <row r="221" spans="1:31" x14ac:dyDescent="0.25">
@@ -18655,11 +18666,11 @@
       </c>
       <c r="AD221">
         <f t="shared" si="7"/>
-        <v>3251.8000489999999</v>
+        <v>4140.0498049999997</v>
       </c>
       <c r="AE221">
         <f t="shared" si="8"/>
-        <v>4115.4501950000003</v>
+        <v>3251.8000489999999</v>
       </c>
     </row>
     <row r="222" spans="1:31" x14ac:dyDescent="0.25">
@@ -18707,11 +18718,11 @@
       </c>
       <c r="AD222">
         <f t="shared" si="7"/>
-        <v>3232</v>
+        <v>4155.9501950000003</v>
       </c>
       <c r="AE222">
         <f t="shared" si="8"/>
-        <v>4070.6499020000001</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="223" spans="1:31" x14ac:dyDescent="0.25">
@@ -18759,11 +18770,11 @@
       </c>
       <c r="AD223">
         <f t="shared" si="7"/>
-        <v>3233</v>
+        <v>4070.6499020000001</v>
       </c>
       <c r="AE223">
         <f t="shared" si="8"/>
-        <v>4069.75</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="224" spans="1:31" x14ac:dyDescent="0.25">
@@ -18811,11 +18822,11 @@
       </c>
       <c r="AD224">
         <f t="shared" si="7"/>
-        <v>3224.75</v>
+        <v>4080.8999020000001</v>
       </c>
       <c r="AE224">
         <f t="shared" si="8"/>
-        <v>4075.3999020000001</v>
+        <v>3224.75</v>
       </c>
     </row>
     <row r="225" spans="1:31" x14ac:dyDescent="0.25">
@@ -18863,11 +18874,11 @@
       </c>
       <c r="AD225">
         <f t="shared" si="7"/>
-        <v>3243.6499020000001</v>
+        <v>4075</v>
       </c>
       <c r="AE225">
         <f t="shared" si="8"/>
-        <v>4033.0500489999999</v>
+        <v>3243.6499020000001</v>
       </c>
     </row>
     <row r="226" spans="1:31" x14ac:dyDescent="0.25">
@@ -18915,11 +18926,11 @@
       </c>
       <c r="AD226">
         <f t="shared" si="7"/>
-        <v>3241.3500979999999</v>
+        <v>4044.9499510000001</v>
       </c>
       <c r="AE226">
         <f t="shared" si="8"/>
-        <v>4070.0500489999999</v>
+        <v>3241.3500979999999</v>
       </c>
     </row>
     <row r="227" spans="1:31" x14ac:dyDescent="0.25">
@@ -18967,11 +18978,11 @@
       </c>
       <c r="AD227">
         <f t="shared" si="7"/>
-        <v>3313.8999020000001</v>
+        <v>4085</v>
       </c>
       <c r="AE227">
         <f t="shared" si="8"/>
-        <v>4045.6499020000001</v>
+        <v>3313.8999020000001</v>
       </c>
     </row>
     <row r="228" spans="1:31" x14ac:dyDescent="0.25">
@@ -19019,11 +19030,11 @@
       </c>
       <c r="AD228">
         <f t="shared" si="7"/>
-        <v>3332.0500489999999</v>
+        <v>4045</v>
       </c>
       <c r="AE228">
         <f t="shared" si="8"/>
-        <v>4010.1499020000001</v>
+        <v>3332.0500489999999</v>
       </c>
     </row>
     <row r="229" spans="1:31" x14ac:dyDescent="0.25">
@@ -19071,11 +19082,11 @@
       </c>
       <c r="AD229">
         <f t="shared" si="7"/>
-        <v>3336.0500489999999</v>
+        <v>4010</v>
       </c>
       <c r="AE229">
         <f t="shared" si="8"/>
-        <v>4021.3500979999999</v>
+        <v>3336.0500489999999</v>
       </c>
     </row>
     <row r="230" spans="1:31" x14ac:dyDescent="0.25">
@@ -19123,11 +19134,11 @@
       </c>
       <c r="AD230">
         <f t="shared" si="7"/>
-        <v>3297.1499020000001</v>
+        <v>4011</v>
       </c>
       <c r="AE230">
         <f t="shared" si="8"/>
-        <v>3965.8999020000001</v>
+        <v>3297.1499020000001</v>
       </c>
     </row>
     <row r="231" spans="1:31" x14ac:dyDescent="0.25">
@@ -19175,11 +19186,11 @@
       </c>
       <c r="AD231">
         <f t="shared" si="7"/>
-        <v>3302.9499510000001</v>
+        <v>3950</v>
       </c>
       <c r="AE231">
         <f t="shared" si="8"/>
-        <v>3954.5</v>
+        <v>3302.9499510000001</v>
       </c>
     </row>
     <row r="232" spans="1:31" x14ac:dyDescent="0.25">
@@ -19227,11 +19238,11 @@
       </c>
       <c r="AD232">
         <f t="shared" si="7"/>
-        <v>3341.3000489999999</v>
+        <v>3977.9499510000001</v>
       </c>
       <c r="AE232">
         <f t="shared" si="8"/>
-        <v>4007.9499510000001</v>
+        <v>3341.3000489999999</v>
       </c>
     </row>
     <row r="233" spans="1:31" x14ac:dyDescent="0.25">
@@ -19279,11 +19290,11 @@
       </c>
       <c r="AD233">
         <f t="shared" si="7"/>
-        <v>3383.3500979999999</v>
+        <v>4009.9499510000001</v>
       </c>
       <c r="AE233">
         <f t="shared" si="8"/>
-        <v>4023.4499510000001</v>
+        <v>3383.3500979999999</v>
       </c>
     </row>
     <row r="234" spans="1:31" x14ac:dyDescent="0.25">
@@ -19331,11 +19342,11 @@
       </c>
       <c r="AD234">
         <f t="shared" si="7"/>
-        <v>3404.4499510000001</v>
+        <v>4020</v>
       </c>
       <c r="AE234">
         <f t="shared" si="8"/>
-        <v>4027.4499510000001</v>
+        <v>3404.4499510000001</v>
       </c>
     </row>
     <row r="235" spans="1:31" x14ac:dyDescent="0.25">
@@ -19383,11 +19394,11 @@
       </c>
       <c r="AD235">
         <f t="shared" si="7"/>
-        <v>3397.25</v>
+        <v>4048.8999020000001</v>
       </c>
       <c r="AE235">
         <f t="shared" si="8"/>
-        <v>4044.6499020000001</v>
+        <v>3397.25</v>
       </c>
     </row>
     <row r="236" spans="1:31" x14ac:dyDescent="0.25">
@@ -19435,11 +19446,11 @@
       </c>
       <c r="AD236">
         <f t="shared" si="7"/>
-        <v>3402.3999020000001</v>
+        <v>4045.1000979999999</v>
       </c>
       <c r="AE236">
         <f t="shared" si="8"/>
-        <v>4082.6499020000001</v>
+        <v>3402.3999020000001</v>
       </c>
     </row>
     <row r="237" spans="1:31" x14ac:dyDescent="0.25">
@@ -19487,11 +19498,11 @@
       </c>
       <c r="AD237">
         <f t="shared" si="7"/>
-        <v>3396.1000979999999</v>
+        <v>4075</v>
       </c>
       <c r="AE237">
         <f t="shared" si="8"/>
-        <v>4064.75</v>
+        <v>3396.1000979999999</v>
       </c>
     </row>
     <row r="238" spans="1:31" x14ac:dyDescent="0.25">
@@ -19539,11 +19550,11 @@
       </c>
       <c r="AD238">
         <f t="shared" si="7"/>
-        <v>3391.3500979999999</v>
+        <v>4070</v>
       </c>
       <c r="AE238">
         <f t="shared" si="8"/>
-        <v>4103.3500979999999</v>
+        <v>3391.3500979999999</v>
       </c>
     </row>
     <row r="239" spans="1:31" x14ac:dyDescent="0.25">
@@ -19591,11 +19602,11 @@
       </c>
       <c r="AD239">
         <f t="shared" si="7"/>
-        <v>3373.6000979999999</v>
+        <v>4080</v>
       </c>
       <c r="AE239">
         <f t="shared" si="8"/>
-        <v>3932.3500979999999</v>
+        <v>3373.6000979999999</v>
       </c>
     </row>
     <row r="240" spans="1:31" x14ac:dyDescent="0.25">
@@ -19643,11 +19654,11 @@
       </c>
       <c r="AD240">
         <f t="shared" si="7"/>
-        <v>3379.9499510000001</v>
+        <v>3965</v>
       </c>
       <c r="AE240">
         <f t="shared" si="8"/>
-        <v>3897.8500979999999</v>
+        <v>3379.9499510000001</v>
       </c>
     </row>
     <row r="241" spans="1:31" x14ac:dyDescent="0.25">
@@ -19695,11 +19706,11 @@
       </c>
       <c r="AD241">
         <f t="shared" si="7"/>
-        <v>3355.5500489999999</v>
+        <v>3902</v>
       </c>
       <c r="AE241">
         <f t="shared" si="8"/>
-        <v>3863.5</v>
+        <v>3355.5500489999999</v>
       </c>
     </row>
     <row r="242" spans="1:31" x14ac:dyDescent="0.25">
@@ -19747,11 +19758,11 @@
       </c>
       <c r="AD242">
         <f t="shared" si="7"/>
-        <v>3298.3999020000001</v>
+        <v>3893.9499510000001</v>
       </c>
       <c r="AE242">
         <f t="shared" si="8"/>
-        <v>3804.3999020000001</v>
+        <v>3298.3999020000001</v>
       </c>
     </row>
     <row r="243" spans="1:31" x14ac:dyDescent="0.25">
@@ -19799,11 +19810,11 @@
       </c>
       <c r="AD243">
         <f t="shared" si="7"/>
-        <v>3267.5</v>
+        <v>3810.1000979999999</v>
       </c>
       <c r="AE243">
         <f t="shared" si="8"/>
-        <v>3810.75</v>
+        <v>3267.5</v>
       </c>
     </row>
     <row r="244" spans="1:31" x14ac:dyDescent="0.25">
@@ -19851,11 +19862,11 @@
       </c>
       <c r="AD244">
         <f t="shared" si="7"/>
-        <v>3286.8500979999999</v>
+        <v>3818.8999020000001</v>
       </c>
       <c r="AE244">
         <f t="shared" si="8"/>
-        <v>3822</v>
+        <v>3286.8500979999999</v>
       </c>
     </row>
     <row r="245" spans="1:31" x14ac:dyDescent="0.25">
@@ -19903,11 +19914,11 @@
       </c>
       <c r="AD245">
         <f t="shared" si="7"/>
-        <v>3288.1999510000001</v>
+        <v>3845</v>
       </c>
       <c r="AE245">
         <f t="shared" si="8"/>
-        <v>3821.3500979999999</v>
+        <v>3288.1999510000001</v>
       </c>
     </row>
     <row r="246" spans="1:31" x14ac:dyDescent="0.25">
@@ -19955,22 +19966,22 @@
       </c>
       <c r="AD246">
         <f t="shared" si="7"/>
-        <v>3277.8000489999999</v>
+        <v>3827.9499510000001</v>
       </c>
       <c r="AE246">
         <f t="shared" si="8"/>
-        <v>3841</v>
+        <v>3277.8000489999999</v>
       </c>
     </row>
     <row r="247" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4 Z5">
       <formula1>$B$1:$M$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5 Z6">
       <formula1>$A$1:$N$1</formula1>
     </dataValidation>
   </dataValidations>
